--- a/data_month/zb/工业/按行业分工业企业主要经济指标(2001-2002)/工业企业利息净支出.xlsx
+++ b/data_month/zb/工业/按行业分工业企业主要经济指标(2001-2002)/工业企业利息净支出.xlsx
@@ -2234,7 +2234,7 @@
         <v>-13.23</v>
       </c>
       <c r="H4" t="n">
-        <v>0.73</v>
+        <v>0.04999999999999918</v>
       </c>
       <c r="I4" t="n">
         <v>2.76</v>
@@ -2270,7 +2270,7 @@
         <v>-11.67</v>
       </c>
       <c r="T4" t="n">
-        <v>2.530000000000001</v>
+        <v>0.4900000000000013</v>
       </c>
       <c r="U4" t="n">
         <v>9.109999999999999</v>
@@ -2360,7 +2360,7 @@
         <v>-1.37</v>
       </c>
       <c r="AX4" t="n">
-        <v>1.41</v>
+        <v>1.17</v>
       </c>
       <c r="AY4" t="n">
         <v>5.86</v>
@@ -2387,7 +2387,7 @@
         <v>0.57</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.1199999999999999</v>
+        <v>0.04999999999999984</v>
       </c>
       <c r="BH4" t="n">
         <v>6.03</v>
@@ -2396,7 +2396,7 @@
         <v>2.95</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1.6</v>
+        <v>0.9600000000000002</v>
       </c>
       <c r="BK4" t="n">
         <v>5.93</v>
@@ -2405,7 +2405,7 @@
         <v>-8.470000000000001</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.1000000000000001</v>
+        <v>1.179611963664229e-16</v>
       </c>
       <c r="BN4" t="n">
         <v>0.79</v>
@@ -2450,7 +2450,7 @@
         <v>-3.02</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.9499999999999997</v>
+        <v>0.4300000000000002</v>
       </c>
       <c r="CC4" t="n">
         <v>3.35</v>
@@ -2468,7 +2468,7 @@
         <v>-13.32</v>
       </c>
       <c r="CH4" t="n">
-        <v>2.150000000000002</v>
+        <v>0.2700000000000051</v>
       </c>
       <c r="CI4" t="n">
         <v>13.35</v>
@@ -2549,7 +2549,7 @@
         <v>-6.4</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.1700000000000008</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="DJ4" t="n">
         <v>10.06</v>
@@ -2558,7 +2558,7 @@
         <v>1.94</v>
       </c>
       <c r="DL4" t="n">
-        <v>11.83</v>
+        <v>5.030000000000003</v>
       </c>
       <c r="DM4" t="n">
         <v>39.42</v>
@@ -2567,7 +2567,7 @@
         <v>-16.27</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.28</v>
+        <v>0.2399999999999996</v>
       </c>
       <c r="DP4" t="n">
         <v>1.01</v>
@@ -2703,7 +2703,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3800000000000021</v>
+        <v>0.1000000000000041</v>
       </c>
       <c r="C5" t="n">
         <v>16.17</v>
@@ -2721,7 +2721,7 @@
         <v>-10.63</v>
       </c>
       <c r="H5" t="n">
-        <v>0.25</v>
+        <v>0.03000000000000061</v>
       </c>
       <c r="I5" t="n">
         <v>3.71</v>
@@ -2730,7 +2730,7 @@
         <v>-3.77</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1000000000000005</v>
+        <v>0.02000000000000043</v>
       </c>
       <c r="L5" t="n">
         <v>3.14</v>
@@ -2748,7 +2748,7 @@
         <v>20.29</v>
       </c>
       <c r="Q5" t="n">
-        <v>10.27</v>
+        <v>3.23</v>
       </c>
       <c r="R5" t="n">
         <v>54.03</v>
@@ -2757,7 +2757,7 @@
         <v>-11.89</v>
       </c>
       <c r="T5" t="n">
-        <v>1.459999999999999</v>
+        <v>0.459999999999998</v>
       </c>
       <c r="U5" t="n">
         <v>11.66</v>
@@ -2775,7 +2775,7 @@
         <v>4.29</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.21</v>
+        <v>0.04999999999999993</v>
       </c>
       <c r="AA5" t="n">
         <v>4.22</v>
@@ -2793,7 +2793,7 @@
         <v>6.17</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.009999999999999593</v>
       </c>
       <c r="AG5" t="n">
         <v>1.7</v>
@@ -2811,7 +2811,7 @@
         <v>-5.38</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.09999999999999981</v>
+        <v>0.04999999999999971</v>
       </c>
       <c r="AM5" t="n">
         <v>1.66</v>
@@ -2829,7 +2829,7 @@
         <v>-0.02</v>
       </c>
       <c r="AR5" t="n">
-        <v>6.199999999999996</v>
+        <v>4.119999999999997</v>
       </c>
       <c r="AS5" t="n">
         <v>22.03</v>
@@ -2838,7 +2838,7 @@
         <v>-33.1</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.9000000000000004</v>
+        <v>0.4600000000000026</v>
       </c>
       <c r="AV5" t="n">
         <v>3.82</v>
@@ -2856,7 +2856,7 @@
         <v>5.26</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.1900000000000013</v>
+        <v>0.0500000000000016</v>
       </c>
       <c r="BB5" t="n">
         <v>4.57</v>
@@ -2865,7 +2865,7 @@
         <v>0.08</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.09999999999999987</v>
+        <v>0.01999999999999923</v>
       </c>
       <c r="BE5" t="n">
         <v>1.81</v>
@@ -2874,7 +2874,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.02000000000000022</v>
       </c>
       <c r="BH5" t="n">
         <v>7.87</v>
@@ -2883,7 +2883,7 @@
         <v>4.29</v>
       </c>
       <c r="BJ5" t="n">
-        <v>1.17</v>
+        <v>0.04999999999999982</v>
       </c>
       <c r="BK5" t="n">
         <v>7.66</v>
@@ -2892,7 +2892,7 @@
         <v>-5.19</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.1299999999999999</v>
+        <v>0.02999999999999955</v>
       </c>
       <c r="BN5" t="n">
         <v>0.96</v>
@@ -2919,7 +2919,7 @@
         <v>8.050000000000001</v>
       </c>
       <c r="BV5" t="n">
-        <v>5</v>
+        <v>0.529999999999988</v>
       </c>
       <c r="BW5" t="n">
         <v>27.67</v>
@@ -2928,7 +2928,7 @@
         <v>4.22</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.8900000000000006</v>
+        <v>0.25</v>
       </c>
       <c r="BZ5" t="n">
         <v>27.23</v>
@@ -2955,7 +2955,7 @@
         <v>-9.93</v>
       </c>
       <c r="CH5" t="n">
-        <v>4.049999999999997</v>
+        <v>1.08999999999998</v>
       </c>
       <c r="CI5" t="n">
         <v>15.55</v>
@@ -2964,7 +2964,7 @@
         <v>-22.98</v>
       </c>
       <c r="CK5" t="n">
-        <v>8.840000000000003</v>
+        <v>8.320000000000007</v>
       </c>
       <c r="CL5" t="n">
         <v>37.94</v>
@@ -2973,7 +2973,7 @@
         <v>-9.09</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.8500000000000005</v>
+        <v>0.2300000000000013</v>
       </c>
       <c r="CO5" t="n">
         <v>3.9</v>
@@ -2982,7 +2982,7 @@
         <v>-2.61</v>
       </c>
       <c r="CQ5" t="n">
-        <v>3.91</v>
+        <v>0.5899999999999999</v>
       </c>
       <c r="CR5" t="n">
         <v>18.82</v>
@@ -3027,7 +3027,7 @@
         <v>-1.53</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.769999999999996</v>
+        <v>0.1399999999999935</v>
       </c>
       <c r="DG5" t="n">
         <v>21.17</v>
@@ -3036,7 +3036,7 @@
         <v>-5.58</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.5799999999999992</v>
+        <v>0.4099999999999957</v>
       </c>
       <c r="DJ5" t="n">
         <v>12.75</v>
@@ -3054,7 +3054,7 @@
         <v>-18.37</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.26</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="DP5" t="n">
         <v>1.37</v>
@@ -3190,7 +3190,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.66</v>
+        <v>2.979999999999986</v>
       </c>
       <c r="C6" t="n">
         <v>19.76</v>
@@ -3199,7 +3199,7 @@
         <v>-8.76</v>
       </c>
       <c r="E6" t="n">
-        <v>8.280000000000001</v>
+        <v>1.879999999999996</v>
       </c>
       <c r="F6" t="n">
         <v>47.21</v>
@@ -3208,7 +3208,7 @@
         <v>-10.87</v>
       </c>
       <c r="H6" t="n">
-        <v>0.71</v>
+        <v>0.21</v>
       </c>
       <c r="I6" t="n">
         <v>4.55</v>
@@ -3217,7 +3217,7 @@
         <v>-5.64</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.3899999999999979</v>
       </c>
       <c r="L6" t="n">
         <v>3.84</v>
@@ -3226,7 +3226,7 @@
         <v>-5.53</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="O6" t="n">
         <v>0.02</v>
@@ -3244,7 +3244,7 @@
         <v>-8.43</v>
       </c>
       <c r="T6" t="n">
-        <v>1.949999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="U6" t="n">
         <v>13.78</v>
@@ -3262,7 +3262,7 @@
         <v>7.82</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.7000000000000002</v>
+        <v>0.1000000000000002</v>
       </c>
       <c r="AA6" t="n">
         <v>5.47</v>
@@ -3271,7 +3271,7 @@
         <v>1.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.100000000000001</v>
+        <v>0.51000000000001</v>
       </c>
       <c r="AD6" t="n">
         <v>12.73</v>
@@ -3280,7 +3280,7 @@
         <v>2.88</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.1200000000000011</v>
       </c>
       <c r="AG6" t="n">
         <v>1.9</v>
@@ -3289,7 +3289,7 @@
         <v>6.56</v>
       </c>
       <c r="AI6" t="n">
-        <v>152.34</v>
+        <v>126.34</v>
       </c>
       <c r="AJ6" t="n">
         <v>860.23</v>
@@ -3298,7 +3298,7 @@
         <v>-4.86</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.1299999999999999</v>
+        <v>0.03000000000000008</v>
       </c>
       <c r="AM6" t="n">
         <v>2.05</v>
@@ -3307,7 +3307,7 @@
         <v>0.32</v>
       </c>
       <c r="AO6" t="n">
-        <v>5.260000000000002</v>
+        <v>3.779999999999998</v>
       </c>
       <c r="AP6" t="n">
         <v>31.62</v>
@@ -3316,7 +3316,7 @@
         <v>-1.01</v>
       </c>
       <c r="AR6" t="n">
-        <v>5.200000000000003</v>
+        <v>0.04000000000000625</v>
       </c>
       <c r="AS6" t="n">
         <v>26.19</v>
@@ -3325,7 +3325,7 @@
         <v>-33.06</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.8599999999999994</v>
+        <v>0.06999999999999851</v>
       </c>
       <c r="AV6" t="n">
         <v>4.72</v>
@@ -3334,7 +3334,7 @@
         <v>-4.77</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.369999999999999</v>
+        <v>0.1299999999999945</v>
       </c>
       <c r="AY6" t="n">
         <v>9.199999999999999</v>
@@ -3343,7 +3343,7 @@
         <v>4.52</v>
       </c>
       <c r="BA6" t="n">
-        <v>1.069999999999999</v>
+        <v>0.7299999999999929</v>
       </c>
       <c r="BB6" t="n">
         <v>5.66</v>
@@ -3352,7 +3352,7 @@
         <v>-0.65</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.03999999999999981</v>
+        <v>1.349614864309956e-15</v>
       </c>
       <c r="BE6" t="n">
         <v>2.32</v>
@@ -3361,7 +3361,7 @@
         <v>2.23</v>
       </c>
       <c r="BG6" t="n">
-        <v>1.59</v>
+        <v>1.41</v>
       </c>
       <c r="BH6" t="n">
         <v>9.26</v>
@@ -3379,7 +3379,7 @@
         <v>-3.96</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="BN6" t="n">
         <v>1.24</v>
@@ -3388,7 +3388,7 @@
         <v>21.47</v>
       </c>
       <c r="BP6" t="n">
-        <v>2.009999999999998</v>
+        <v>1.569999999999994</v>
       </c>
       <c r="BQ6" t="n">
         <v>21.31</v>
@@ -3397,7 +3397,7 @@
         <v>11.09</v>
       </c>
       <c r="BS6" t="n">
-        <v>27.81999999999999</v>
+        <v>7.219999999999947</v>
       </c>
       <c r="BT6" t="n">
         <v>164.82</v>
@@ -3406,7 +3406,7 @@
         <v>6.77</v>
       </c>
       <c r="BV6" t="n">
-        <v>1.23</v>
+        <v>0.7000000000000119</v>
       </c>
       <c r="BW6" t="n">
         <v>33.27</v>
@@ -3415,7 +3415,7 @@
         <v>5.45</v>
       </c>
       <c r="BY6" t="n">
-        <v>6.240000000000002</v>
+        <v>4.280000000000001</v>
       </c>
       <c r="BZ6" t="n">
         <v>34.5</v>
@@ -3424,7 +3424,7 @@
         <v>-3.79</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.9799999999999995</v>
+        <v>0.7399999999999949</v>
       </c>
       <c r="CC6" t="n">
         <v>5.48</v>
@@ -3433,7 +3433,7 @@
         <v>2.08</v>
       </c>
       <c r="CE6" t="n">
-        <v>3.830000000000002</v>
+        <v>1.160000000000004</v>
       </c>
       <c r="CF6" t="n">
         <v>30.05</v>
@@ -3442,7 +3442,7 @@
         <v>-7.28</v>
       </c>
       <c r="CH6" t="n">
-        <v>19.56</v>
+        <v>10.62000000000002</v>
       </c>
       <c r="CI6" t="n">
         <v>19.84</v>
@@ -3469,7 +3469,7 @@
         <v>0.3</v>
       </c>
       <c r="CQ6" t="n">
-        <v>3.699999999999999</v>
+        <v>0.6199999999999988</v>
       </c>
       <c r="CR6" t="n">
         <v>22.92</v>
@@ -3487,7 +3487,7 @@
         <v>-3.05</v>
       </c>
       <c r="CW6" t="n">
-        <v>8.409999999999997</v>
+        <v>5.009999999999991</v>
       </c>
       <c r="CX6" t="n">
         <v>44.16</v>
@@ -3496,7 +3496,7 @@
         <v>-7.76</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.5700000000000003</v>
+        <v>0.1700000000000009</v>
       </c>
       <c r="DA6" t="n">
         <v>2.96</v>
@@ -3505,7 +3505,7 @@
         <v>-6.61</v>
       </c>
       <c r="DC6" t="n">
-        <v>1.75</v>
+        <v>1.149999999999996</v>
       </c>
       <c r="DD6" t="n">
         <v>10.41</v>
@@ -3514,7 +3514,7 @@
         <v>-4.01</v>
       </c>
       <c r="DF6" t="n">
-        <v>4.799999999999997</v>
+        <v>3.610000000000022</v>
       </c>
       <c r="DG6" t="n">
         <v>26.2</v>
@@ -3523,7 +3523,7 @@
         <v>-5.12</v>
       </c>
       <c r="DI6" t="n">
-        <v>3.15</v>
+        <v>1.340000000000009</v>
       </c>
       <c r="DJ6" t="n">
         <v>15.13</v>
@@ -3532,7 +3532,7 @@
         <v>-4.46</v>
       </c>
       <c r="DL6" t="n">
-        <v>11.25999999999999</v>
+        <v>8.819999999999991</v>
       </c>
       <c r="DM6" t="n">
         <v>59.19</v>
@@ -3541,7 +3541,7 @@
         <v>-17.02</v>
       </c>
       <c r="DO6" t="n">
-        <v>0.09999999999999987</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="DP6" t="n">
         <v>1.72</v>
@@ -3686,7 +3686,7 @@
         <v>-10.12</v>
       </c>
       <c r="E7" t="n">
-        <v>7.829999999999998</v>
+        <v>1.149999999999999</v>
       </c>
       <c r="F7" t="n">
         <v>54.87</v>
@@ -3695,7 +3695,7 @@
         <v>-10.42</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4000000000000001</v>
+        <v>0.1900000000000001</v>
       </c>
       <c r="I7" t="n">
         <v>5.3</v>
@@ -3704,7 +3704,7 @@
         <v>-4.37</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5599999999999996</v>
+        <v>0.07000000000000073</v>
       </c>
       <c r="L7" t="n">
         <v>4.6</v>
@@ -3713,7 +3713,7 @@
         <v>-2.95</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="O7" t="n">
         <v>0.02</v>
@@ -3722,7 +3722,7 @@
         <v>42.13</v>
       </c>
       <c r="Q7" t="n">
-        <v>11.66999999999999</v>
+        <v>1.509999999999985</v>
       </c>
       <c r="R7" t="n">
         <v>76.75</v>
@@ -3731,7 +3731,7 @@
         <v>-9.06</v>
       </c>
       <c r="T7" t="n">
-        <v>2.57</v>
+        <v>0.1300000000000008</v>
       </c>
       <c r="U7" t="n">
         <v>15.76</v>
@@ -3740,7 +3740,7 @@
         <v>-14.02</v>
       </c>
       <c r="W7" t="n">
-        <v>3.080000000000002</v>
+        <v>0.1199999999999981</v>
       </c>
       <c r="X7" t="n">
         <v>22.1</v>
@@ -3749,7 +3749,7 @@
         <v>1.26</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.2400000000000002</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="AA7" t="n">
         <v>6.44</v>
@@ -3758,7 +3758,7 @@
         <v>5.74</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.769999999999998</v>
+        <v>0.199999999999994</v>
       </c>
       <c r="AD7" t="n">
         <v>14.92</v>
@@ -3776,7 +3776,7 @@
         <v>8.630000000000001</v>
       </c>
       <c r="AI7" t="n">
-        <v>141.78</v>
+        <v>2.439999999999998</v>
       </c>
       <c r="AJ7" t="n">
         <v>1005.52</v>
@@ -3785,7 +3785,7 @@
         <v>-4.83</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.3000000000000003</v>
+        <v>0.08000000000000011</v>
       </c>
       <c r="AM7" t="n">
         <v>2.36</v>
@@ -3803,7 +3803,7 @@
         <v>-0.62</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.949999999999996</v>
+        <v>1.90999999999999</v>
       </c>
       <c r="AS7" t="n">
         <v>30.82</v>
@@ -3821,7 +3821,7 @@
         <v>-4.32</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.4400000000000011</v>
+        <v>5.440092820663267e-15</v>
       </c>
       <c r="AY7" t="n">
         <v>10.72</v>
@@ -3839,7 +3839,7 @@
         <v>-3.22</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.05000000000000027</v>
+        <v>0.01000000000000047</v>
       </c>
       <c r="BE7" t="n">
         <v>2.61</v>
@@ -3848,7 +3848,7 @@
         <v>-6.16</v>
       </c>
       <c r="BG7" t="n">
-        <v>1.529999999999999</v>
+        <v>0.009999999999998899</v>
       </c>
       <c r="BH7" t="n">
         <v>11.17</v>
@@ -3857,7 +3857,7 @@
         <v>2.44</v>
       </c>
       <c r="BJ7" t="n">
-        <v>1.800000000000001</v>
+        <v>0.8900000000000008</v>
       </c>
       <c r="BK7" t="n">
         <v>11.12</v>
@@ -3866,7 +3866,7 @@
         <v>-1.83</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.1300000000000001</v>
+        <v>0.07000000000000006</v>
       </c>
       <c r="BN7" t="n">
         <v>1.46</v>
@@ -3884,7 +3884,7 @@
         <v>10.9</v>
       </c>
       <c r="BS7" t="n">
-        <v>16.97</v>
+        <v>4.600000000000039</v>
       </c>
       <c r="BT7" t="n">
         <v>193.06</v>
@@ -3893,7 +3893,7 @@
         <v>5.97</v>
       </c>
       <c r="BV7" t="n">
-        <v>5.420000000000002</v>
+        <v>0.5000000000000011</v>
       </c>
       <c r="BW7" t="n">
         <v>39.87</v>
@@ -3902,7 +3902,7 @@
         <v>5.53</v>
       </c>
       <c r="BY7" t="n">
-        <v>4.979999999999997</v>
+        <v>0.1999999999999957</v>
       </c>
       <c r="BZ7" t="n">
         <v>40.39</v>
@@ -3920,7 +3920,7 @@
         <v>3.46</v>
       </c>
       <c r="CE7" t="n">
-        <v>4.730000000000004</v>
+        <v>0.9000000000000021</v>
       </c>
       <c r="CF7" t="n">
         <v>36.46</v>
@@ -3938,7 +3938,7 @@
         <v>-12.89</v>
       </c>
       <c r="CK7" t="n">
-        <v>7.359999999999992</v>
+        <v>5.479999999999996</v>
       </c>
       <c r="CL7" t="n">
         <v>52.04</v>
@@ -3947,7 +3947,7 @@
         <v>-13.09</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.09000000000000075</v>
+        <v>0.05000000000000515</v>
       </c>
       <c r="CO7" t="n">
         <v>5.65</v>
@@ -3956,7 +3956,7 @@
         <v>-1.09</v>
       </c>
       <c r="CQ7" t="n">
-        <v>3.560000000000002</v>
+        <v>2.320000000000004</v>
       </c>
       <c r="CR7" t="n">
         <v>26.86</v>
@@ -3965,7 +3965,7 @@
         <v>10.99</v>
       </c>
       <c r="CT7" t="n">
-        <v>2.93</v>
+        <v>2.889999999999992</v>
       </c>
       <c r="CU7" t="n">
         <v>19.15</v>
@@ -3974,7 +3974,7 @@
         <v>-2.33</v>
       </c>
       <c r="CW7" t="n">
-        <v>8.279999999999994</v>
+        <v>0.7199999999999989</v>
       </c>
       <c r="CX7" t="n">
         <v>52.12</v>
@@ -3983,7 +3983,7 @@
         <v>-7.4</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.5499999999999998</v>
+        <v>0.009999999999998288</v>
       </c>
       <c r="DA7" t="n">
         <v>3.76</v>
@@ -4010,7 +4010,7 @@
         <v>-6.83</v>
       </c>
       <c r="DI7" t="n">
-        <v>1.879999999999999</v>
+        <v>0.1299999999999939</v>
       </c>
       <c r="DJ7" t="n">
         <v>17.97</v>
@@ -4019,7 +4019,7 @@
         <v>-5.33</v>
       </c>
       <c r="DL7" t="n">
-        <v>10.94000000000001</v>
+        <v>0.2900000000000205</v>
       </c>
       <c r="DM7" t="n">
         <v>69.25</v>
@@ -4028,7 +4028,7 @@
         <v>-16.16</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.2700000000000002</v>
+        <v>0.07000000000000042</v>
       </c>
       <c r="DP7" t="n">
         <v>1.97</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.32</v>
+        <v>2.6</v>
       </c>
       <c r="C8" t="n">
         <v>25.83</v>
@@ -4173,7 +4173,7 @@
         <v>-11.4</v>
       </c>
       <c r="E8" t="n">
-        <v>1.390000000000001</v>
+        <v>0.240000000000002</v>
       </c>
       <c r="F8" t="n">
         <v>64.04000000000001</v>
@@ -4182,7 +4182,7 @@
         <v>-7.31</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.08999999999999952</v>
       </c>
       <c r="I8" t="n">
         <v>6.08</v>
@@ -4191,7 +4191,7 @@
         <v>-8.640000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1700000000000008</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="L8" t="n">
         <v>5.2</v>
@@ -4200,7 +4200,7 @@
         <v>-2.01</v>
       </c>
       <c r="N8" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="O8" t="n">
         <v>0.03</v>
@@ -4218,7 +4218,7 @@
         <v>-8.33</v>
       </c>
       <c r="T8" t="n">
-        <v>2.290000000000003</v>
+        <v>1.41</v>
       </c>
       <c r="U8" t="n">
         <v>18.15</v>
@@ -4245,7 +4245,7 @@
         <v>-0.55</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.5700000000000018</v>
+        <v>0.1700000000000139</v>
       </c>
       <c r="AD8" t="n">
         <v>16.74</v>
@@ -4254,7 +4254,7 @@
         <v>3.07</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.2399999999999998</v>
+        <v>0.1599999999999978</v>
       </c>
       <c r="AG8" t="n">
         <v>2.7</v>
@@ -4263,7 +4263,7 @@
         <v>10.43</v>
       </c>
       <c r="AI8" t="n">
-        <v>21.3600000000001</v>
+        <v>18.9200000000001</v>
       </c>
       <c r="AJ8" t="n">
         <v>1152.29</v>
@@ -4272,7 +4272,7 @@
         <v>-3.84</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.3500000000000001</v>
+        <v>0.04999999999999977</v>
       </c>
       <c r="AM8" t="n">
         <v>2.8</v>
@@ -4281,7 +4281,7 @@
         <v>7.51</v>
       </c>
       <c r="AO8" t="n">
-        <v>5.460000000000001</v>
+        <v>3.460000000000016</v>
       </c>
       <c r="AP8" t="n">
         <v>42.78</v>
@@ -4290,7 +4290,7 @@
         <v>-0.42</v>
       </c>
       <c r="AR8" t="n">
-        <v>5.020000000000003</v>
+        <v>1.120000000000011</v>
       </c>
       <c r="AS8" t="n">
         <v>36.54</v>
@@ -4299,7 +4299,7 @@
         <v>-29.01</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.02999999999999936</v>
       </c>
       <c r="AV8" t="n">
         <v>6.27</v>
@@ -4317,7 +4317,7 @@
         <v>0.09</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.7399999999999993</v>
+        <v>0.6199999999999912</v>
       </c>
       <c r="BB8" t="n">
         <v>7.51</v>
@@ -4326,7 +4326,7 @@
         <v>-4.51</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.2800000000000002</v>
+        <v>0.1999999999999984</v>
       </c>
       <c r="BE8" t="n">
         <v>2.86</v>
@@ -4335,7 +4335,7 @@
         <v>-14.43</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.05000000000000115</v>
+        <v>0.03000000000000335</v>
       </c>
       <c r="BH8" t="n">
         <v>12.71</v>
@@ -4344,7 +4344,7 @@
         <v>2.15</v>
       </c>
       <c r="BJ8" t="n">
-        <v>1.569999999999999</v>
+        <v>0.6799999999999982</v>
       </c>
       <c r="BK8" t="n">
         <v>17.24</v>
@@ -4362,7 +4362,7 @@
         <v>17.53</v>
       </c>
       <c r="BP8" t="n">
-        <v>1.550000000000001</v>
+        <v>0.3099999999999937</v>
       </c>
       <c r="BQ8" t="n">
         <v>28.35</v>
@@ -4389,7 +4389,7 @@
         <v>5.24</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.7600000000000051</v>
+        <v>0.5600000000000094</v>
       </c>
       <c r="BZ8" t="n">
         <v>46.15</v>
@@ -4398,7 +4398,7 @@
         <v>-1.95</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.1499999999999986</v>
+        <v>0.149999999999995</v>
       </c>
       <c r="CC8" t="n">
         <v>7.34</v>
@@ -4407,7 +4407,7 @@
         <v>0.27</v>
       </c>
       <c r="CE8" t="n">
-        <v>3.049999999999997</v>
+        <v>0.3499999999999908</v>
       </c>
       <c r="CF8" t="n">
         <v>42.01</v>
@@ -4434,7 +4434,7 @@
         <v>-11.14</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.5600000000000005</v>
+        <v>0.2599999999999911</v>
       </c>
       <c r="CO8" t="n">
         <v>6.58</v>
@@ -4470,7 +4470,7 @@
         <v>-7.47</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.08999999999999986</v>
+        <v>0.08000000000000157</v>
       </c>
       <c r="DA8" t="n">
         <v>4.14</v>
@@ -4479,7 +4479,7 @@
         <v>-3.46</v>
       </c>
       <c r="DC8" t="n">
-        <v>1.57</v>
+        <v>0.7699999999999958</v>
       </c>
       <c r="DD8" t="n">
         <v>14</v>
@@ -4506,7 +4506,7 @@
         <v>-2.1</v>
       </c>
       <c r="DL8" t="n">
-        <v>10.23999999999999</v>
+        <v>9.659999999999949</v>
       </c>
       <c r="DM8" t="n">
         <v>77.67</v>
@@ -4515,7 +4515,7 @@
         <v>-16.97</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.2099999999999998</v>
+        <v>0.03999999999999951</v>
       </c>
       <c r="DP8" t="n">
         <v>2.29</v>
@@ -4660,7 +4660,7 @@
         <v>-9.08</v>
       </c>
       <c r="E9" t="n">
-        <v>8.88000000000001</v>
+        <v>4.470000000000006</v>
       </c>
       <c r="F9" t="n">
         <v>73.23999999999999</v>
@@ -4669,7 +4669,7 @@
         <v>-6.47</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6800000000000006</v>
+        <v>0.01000000000000198</v>
       </c>
       <c r="I9" t="n">
         <v>6.92</v>
@@ -4696,7 +4696,7 @@
         <v>50.62</v>
       </c>
       <c r="Q9" t="n">
-        <v>11.92</v>
+        <v>0.7599999999999665</v>
       </c>
       <c r="R9" t="n">
         <v>100.35</v>
@@ -4714,7 +4714,7 @@
         <v>-11.51</v>
       </c>
       <c r="W9" t="n">
-        <v>0.6900000000000008</v>
+        <v>0.2900000000000076</v>
       </c>
       <c r="X9" t="n">
         <v>28.33</v>
@@ -4723,7 +4723,7 @@
         <v>0.86</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.1100000000000001</v>
+        <v>0.03000000000000181</v>
       </c>
       <c r="AA9" t="n">
         <v>7.97</v>
@@ -4732,7 +4732,7 @@
         <v>-0.29</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.140000000000001</v>
+        <v>0.0599999999999874</v>
       </c>
       <c r="AD9" t="n">
         <v>18.9</v>
@@ -4750,7 +4750,7 @@
         <v>13.65</v>
       </c>
       <c r="AI9" t="n">
-        <v>141.9399999999998</v>
+        <v>56.4999999999994</v>
       </c>
       <c r="AJ9" t="n">
         <v>1315.85</v>
@@ -4759,7 +4759,7 @@
         <v>-3.35</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.06999999999999978</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="AM9" t="n">
         <v>3.17</v>
@@ -4777,7 +4777,7 @@
         <v>-0.75</v>
       </c>
       <c r="AR9" t="n">
-        <v>4.559999999999995</v>
+        <v>0.369999999999977</v>
       </c>
       <c r="AS9" t="n">
         <v>40.02</v>
@@ -4786,7 +4786,7 @@
         <v>-29.15</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.5100000000000007</v>
+        <v>0.3400000000000025</v>
       </c>
       <c r="AV9" t="n">
         <v>7.05</v>
@@ -4795,7 +4795,7 @@
         <v>-8.51</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.470000000000001</v>
+        <v>0.310000000000001</v>
       </c>
       <c r="AY9" t="n">
         <v>13.78</v>
@@ -4813,7 +4813,7 @@
         <v>1.6</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.27</v>
+        <v>0.04000000000000012</v>
       </c>
       <c r="BE9" t="n">
         <v>3.16</v>
@@ -4822,7 +4822,7 @@
         <v>-12.64</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.2000000000000008</v>
+        <v>0.009999999999995048</v>
       </c>
       <c r="BH9" t="n">
         <v>14.43</v>
@@ -4831,7 +4831,7 @@
         <v>2.95</v>
       </c>
       <c r="BJ9" t="n">
-        <v>1.07</v>
+        <v>0.3900000000000019</v>
       </c>
       <c r="BK9" t="n">
         <v>20.89</v>
@@ -4840,7 +4840,7 @@
         <v>42.07</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.1100000000000001</v>
+        <v>0.03000000000000048</v>
       </c>
       <c r="BN9" t="n">
         <v>1.85</v>
@@ -4849,7 +4849,7 @@
         <v>25.54</v>
       </c>
       <c r="BP9" t="n">
-        <v>3.530000000000001</v>
+        <v>0.1200000000000054</v>
       </c>
       <c r="BQ9" t="n">
         <v>32.45</v>
@@ -4858,7 +4858,7 @@
         <v>18.5</v>
       </c>
       <c r="BS9" t="n">
-        <v>20.5</v>
+        <v>4.210000000000012</v>
       </c>
       <c r="BT9" t="n">
         <v>253.28</v>
@@ -4867,7 +4867,7 @@
         <v>8.970000000000001</v>
       </c>
       <c r="BV9" t="n">
-        <v>5.170000000000002</v>
+        <v>3.89000000000003</v>
       </c>
       <c r="BW9" t="n">
         <v>51.44</v>
@@ -4876,7 +4876,7 @@
         <v>5.11</v>
       </c>
       <c r="BY9" t="n">
-        <v>1.019999999999996</v>
+        <v>0.2599999999999909</v>
       </c>
       <c r="BZ9" t="n">
         <v>52.33</v>
@@ -4885,7 +4885,7 @@
         <v>-0.91</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.9300000000000015</v>
+        <v>0.3300000000000125</v>
       </c>
       <c r="CC9" t="n">
         <v>8.43</v>
@@ -4894,7 +4894,7 @@
         <v>-0.25</v>
       </c>
       <c r="CE9" t="n">
-        <v>3.100000000000001</v>
+        <v>0.05000000000000382</v>
       </c>
       <c r="CF9" t="n">
         <v>48.48</v>
@@ -4930,7 +4930,7 @@
         <v>-0.33</v>
       </c>
       <c r="CQ9" t="n">
-        <v>3.840000000000003</v>
+        <v>1.240000000000022</v>
       </c>
       <c r="CR9" t="n">
         <v>34.3</v>
@@ -4939,7 +4939,7 @@
         <v>7.27</v>
       </c>
       <c r="CT9" t="n">
-        <v>3.07</v>
+        <v>0.5899999999999961</v>
       </c>
       <c r="CU9" t="n">
         <v>26.19</v>
@@ -4948,7 +4948,7 @@
         <v>0.38</v>
       </c>
       <c r="CW9" t="n">
-        <v>0.4099999999999966</v>
+        <v>0.04999999999996879</v>
       </c>
       <c r="CX9" t="n">
         <v>67.37</v>
@@ -4957,7 +4957,7 @@
         <v>-7.75</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.5300000000000002</v>
+        <v>0.1700000000000008</v>
       </c>
       <c r="DA9" t="n">
         <v>4.73</v>
@@ -4975,7 +4975,7 @@
         <v>0.5</v>
       </c>
       <c r="DF9" t="n">
-        <v>4.489999999999995</v>
+        <v>0.390000000000001</v>
       </c>
       <c r="DG9" t="n">
         <v>39.67</v>
@@ -4984,7 +4984,7 @@
         <v>-4.87</v>
       </c>
       <c r="DI9" t="n">
-        <v>2.43</v>
+        <v>0.209999999999994</v>
       </c>
       <c r="DJ9" t="n">
         <v>22.95</v>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.07</v>
+        <v>1.669999999999991</v>
       </c>
       <c r="C10" t="n">
         <v>32.66</v>
@@ -5147,7 +5147,7 @@
         <v>-9.640000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>6.769999999999996</v>
+        <v>0.6699999999999866</v>
       </c>
       <c r="F10" t="n">
         <v>79.66</v>
@@ -5156,7 +5156,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0.169999999999999</v>
+        <v>0.06999999999999751</v>
       </c>
       <c r="I10" t="n">
         <v>7.89</v>
@@ -5174,7 +5174,7 @@
         <v>-0.48</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01</v>
+        <v>1.734723475976807e-18</v>
       </c>
       <c r="O10" t="n">
         <v>0.03</v>
@@ -5183,7 +5183,7 @@
         <v>18.06</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.40000000000001</v>
+        <v>1.440000000000055</v>
       </c>
       <c r="R10" t="n">
         <v>109.35</v>
@@ -5192,7 +5192,7 @@
         <v>-11.38</v>
       </c>
       <c r="T10" t="n">
-        <v>2.469999999999999</v>
+        <v>1.350000000000011</v>
       </c>
       <c r="U10" t="n">
         <v>22.31</v>
@@ -5201,7 +5201,7 @@
         <v>-13.39</v>
       </c>
       <c r="W10" t="n">
-        <v>2.259999999999998</v>
+        <v>0.09999999999998432</v>
       </c>
       <c r="X10" t="n">
         <v>32.55</v>
@@ -5210,7 +5210,7 @@
         <v>1.86</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.029999999999999</v>
+        <v>0.709999999999996</v>
       </c>
       <c r="AA10" t="n">
         <v>8.800000000000001</v>
@@ -5219,7 +5219,7 @@
         <v>-2.83</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.82</v>
+        <v>0.2500000000000011</v>
       </c>
       <c r="AD10" t="n">
         <v>20.93</v>
@@ -5228,7 +5228,7 @@
         <v>0.99</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.3199999999999998</v>
+        <v>0.04999999999999888</v>
       </c>
       <c r="AG10" t="n">
         <v>3.5</v>
@@ -5237,7 +5237,7 @@
         <v>15.76</v>
       </c>
       <c r="AI10" t="n">
-        <v>130.0700000000002</v>
+        <v>9.490000000000492</v>
       </c>
       <c r="AJ10" t="n">
         <v>1459.42</v>
@@ -5246,7 +5246,7 @@
         <v>-2.92</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.27</v>
+        <v>0.09000000000000039</v>
       </c>
       <c r="AM10" t="n">
         <v>3.64</v>
@@ -5255,7 +5255,7 @@
         <v>7.88</v>
       </c>
       <c r="AO10" t="n">
-        <v>4.279999999999994</v>
+        <v>0.8599999999999921</v>
       </c>
       <c r="AP10" t="n">
         <v>54</v>
@@ -5273,7 +5273,7 @@
         <v>-26.83</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.469999999999998</v>
+        <v>0.03999999999999737</v>
       </c>
       <c r="AV10" t="n">
         <v>7.61</v>
@@ -5291,7 +5291,7 @@
         <v>-0.65</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.07999999999999829</v>
+        <v>0.03999999999999648</v>
       </c>
       <c r="BB10" t="n">
         <v>9.58</v>
@@ -5300,7 +5300,7 @@
         <v>2.08</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.05999999999999961</v>
+        <v>0.01999999999999949</v>
       </c>
       <c r="BE10" t="n">
         <v>3.38</v>
@@ -5309,7 +5309,7 @@
         <v>-13.19</v>
       </c>
       <c r="BG10" t="n">
-        <v>1.23</v>
+        <v>0.7300000000000036</v>
       </c>
       <c r="BH10" t="n">
         <v>16.26</v>
@@ -5318,7 +5318,7 @@
         <v>2.96</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.9400000000000013</v>
+        <v>0.5499999999999994</v>
       </c>
       <c r="BK10" t="n">
         <v>24.44</v>
@@ -5327,7 +5327,7 @@
         <v>54.97</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.2799999999999998</v>
+        <v>0.03999999999999845</v>
       </c>
       <c r="BN10" t="n">
         <v>2.05</v>
@@ -5336,7 +5336,7 @@
         <v>17.32</v>
       </c>
       <c r="BP10" t="n">
-        <v>2.869999999999997</v>
+        <v>0.1499999999999961</v>
       </c>
       <c r="BQ10" t="n">
         <v>36.7</v>
@@ -5345,7 +5345,7 @@
         <v>18.7</v>
       </c>
       <c r="BS10" t="n">
-        <v>4.450000000000021</v>
+        <v>0.2400000000000082</v>
       </c>
       <c r="BT10" t="n">
         <v>279.92</v>
@@ -5354,7 +5354,7 @@
         <v>10.67</v>
       </c>
       <c r="BV10" t="n">
-        <v>4.859999999999999</v>
+        <v>0.009999999999990017</v>
       </c>
       <c r="BW10" t="n">
         <v>57.81</v>
@@ -5363,7 +5363,7 @@
         <v>6.83</v>
       </c>
       <c r="BY10" t="n">
-        <v>4.440000000000005</v>
+        <v>2.640000000000036</v>
       </c>
       <c r="BZ10" t="n">
         <v>56.99</v>
@@ -5381,7 +5381,7 @@
         <v>-0.67</v>
       </c>
       <c r="CE10" t="n">
-        <v>2.409999999999997</v>
+        <v>2.259999999999985</v>
       </c>
       <c r="CF10" t="n">
         <v>53.56</v>
@@ -5390,7 +5390,7 @@
         <v>-1.75</v>
       </c>
       <c r="CH10" t="n">
-        <v>1.090000000000003</v>
+        <v>0.1400000000000001</v>
       </c>
       <c r="CI10" t="n">
         <v>30.64</v>
@@ -5399,7 +5399,7 @@
         <v>-21.46</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.2599999999999909</v>
+        <v>0.2199999999999705</v>
       </c>
       <c r="CL10" t="n">
         <v>75.23</v>
@@ -5408,7 +5408,7 @@
         <v>-9.23</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.2300000000000004</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="CO10" t="n">
         <v>8.52</v>
@@ -5417,7 +5417,7 @@
         <v>7.56</v>
       </c>
       <c r="CQ10" t="n">
-        <v>3.359999999999999</v>
+        <v>0.1699999999999919</v>
       </c>
       <c r="CR10" t="n">
         <v>37.95</v>
@@ -5426,7 +5426,7 @@
         <v>5.99</v>
       </c>
       <c r="CT10" t="n">
-        <v>2.73</v>
+        <v>0.2800000000000011</v>
       </c>
       <c r="CU10" t="n">
         <v>29.25</v>
@@ -5435,7 +5435,7 @@
         <v>0.31</v>
       </c>
       <c r="CW10" t="n">
-        <v>6.079999999999998</v>
+        <v>5.340000000000082</v>
       </c>
       <c r="CX10" t="n">
         <v>74.20999999999999</v>
@@ -5444,7 +5444,7 @@
         <v>-9.390000000000001</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.3200000000000003</v>
+        <v>0.05999999999999966</v>
       </c>
       <c r="DA10" t="n">
         <v>5.19</v>
@@ -5453,7 +5453,7 @@
         <v>-4.97</v>
       </c>
       <c r="DC10" t="n">
-        <v>2.010000000000002</v>
+        <v>0.1500000000000077</v>
       </c>
       <c r="DD10" t="n">
         <v>17.93</v>
@@ -5462,7 +5462,7 @@
         <v>-2.07</v>
       </c>
       <c r="DF10" t="n">
-        <v>4.109999999999999</v>
+        <v>0.889999999999999</v>
       </c>
       <c r="DG10" t="n">
         <v>43.78</v>
@@ -5471,7 +5471,7 @@
         <v>-5.2</v>
       </c>
       <c r="DI10" t="n">
-        <v>2.059999999999999</v>
+        <v>0.1600000000000072</v>
       </c>
       <c r="DJ10" t="n">
         <v>25.59</v>
@@ -5489,7 +5489,7 @@
         <v>-13.55</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="DP10" t="n">
         <v>3.01</v>
@@ -5634,7 +5634,7 @@
         <v>-9.710000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>4.400000000000004</v>
+        <v>3.730000000000017</v>
       </c>
       <c r="F11" t="n">
         <v>86.83</v>
@@ -5652,7 +5652,7 @@
         <v>-4.47</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7699999999999996</v>
+        <v>0.769999999999996</v>
       </c>
       <c r="L11" t="n">
         <v>7.18</v>
@@ -5661,7 +5661,7 @@
         <v>-5.31</v>
       </c>
       <c r="N11" t="n">
-        <v>0.02</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="O11" t="n">
         <v>0.03</v>
@@ -5670,7 +5670,7 @@
         <v>35.77</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.02000000000001</v>
+        <v>1.619999999999968</v>
       </c>
       <c r="R11" t="n">
         <v>118.18</v>
@@ -5679,7 +5679,7 @@
         <v>-11.66</v>
       </c>
       <c r="T11" t="n">
-        <v>1.710000000000001</v>
+        <v>0.07999999999999297</v>
       </c>
       <c r="U11" t="n">
         <v>24.62</v>
@@ -5688,7 +5688,7 @@
         <v>-12.8</v>
       </c>
       <c r="W11" t="n">
-        <v>1.540000000000006</v>
+        <v>0.07000000000002138</v>
       </c>
       <c r="X11" t="n">
         <v>35.99</v>
@@ -5706,7 +5706,7 @@
         <v>-1.57</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.539999999999999</v>
+        <v>1.039999999999997</v>
       </c>
       <c r="AD11" t="n">
         <v>22.99</v>
@@ -5715,7 +5715,7 @@
         <v>2.02</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.7300000000000002</v>
+        <v>0.0400000000000017</v>
       </c>
       <c r="AG11" t="n">
         <v>3.71</v>
@@ -5724,7 +5724,7 @@
         <v>11.04</v>
       </c>
       <c r="AI11" t="n">
-        <v>22.2199999999998</v>
+        <v>3.239999999998817</v>
       </c>
       <c r="AJ11" t="n">
         <v>1593.35</v>
@@ -5742,7 +5742,7 @@
         <v>8.57</v>
       </c>
       <c r="AO11" t="n">
-        <v>2.070000000000007</v>
+        <v>0.350000000000023</v>
       </c>
       <c r="AP11" t="n">
         <v>58.93</v>
@@ -5751,7 +5751,7 @@
         <v>-1.55</v>
       </c>
       <c r="AR11" t="n">
-        <v>4.649999999999991</v>
+        <v>3.489999999999934</v>
       </c>
       <c r="AS11" t="n">
         <v>48.49</v>
@@ -5760,7 +5760,7 @@
         <v>-26.41</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.4600000000000009</v>
+        <v>0.3800000000000061</v>
       </c>
       <c r="AV11" t="n">
         <v>8.449999999999999</v>
@@ -5769,7 +5769,7 @@
         <v>-8.07</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.599999999999997</v>
+        <v>0.08999999999999728</v>
       </c>
       <c r="AY11" t="n">
         <v>17.07</v>
@@ -5778,7 +5778,7 @@
         <v>-0.67</v>
       </c>
       <c r="BA11" t="n">
-        <v>1.080000000000001</v>
+        <v>0.8800000000000137</v>
       </c>
       <c r="BB11" t="n">
         <v>10.38</v>
@@ -5787,7 +5787,7 @@
         <v>1.25</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.2000000000000006</v>
+        <v>2.300243329145246e-15</v>
       </c>
       <c r="BE11" t="n">
         <v>3.65</v>
@@ -5796,7 +5796,7 @@
         <v>-13.47</v>
       </c>
       <c r="BG11" t="n">
-        <v>1.18</v>
+        <v>0.150000000000001</v>
       </c>
       <c r="BH11" t="n">
         <v>17.59</v>
@@ -5805,7 +5805,7 @@
         <v>3.31</v>
       </c>
       <c r="BJ11" t="n">
-        <v>3.789999999999999</v>
+        <v>0.02999999999999448</v>
       </c>
       <c r="BK11" t="n">
         <v>26.84</v>
@@ -5814,7 +5814,7 @@
         <v>60.61</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.3700000000000006</v>
+        <v>0.02000000000000186</v>
       </c>
       <c r="BN11" t="n">
         <v>2.18</v>
@@ -5823,7 +5823,7 @@
         <v>7.52</v>
       </c>
       <c r="BP11" t="n">
-        <v>1.280000000000002</v>
+        <v>0.2400000000000089</v>
       </c>
       <c r="BQ11" t="n">
         <v>40.87</v>
@@ -5832,7 +5832,7 @@
         <v>20.95</v>
       </c>
       <c r="BS11" t="n">
-        <v>20.69</v>
+        <v>11.30999999999994</v>
       </c>
       <c r="BT11" t="n">
         <v>305.77</v>
@@ -5841,7 +5841,7 @@
         <v>10.04</v>
       </c>
       <c r="BV11" t="n">
-        <v>1.870000000000005</v>
+        <v>1.850000000000025</v>
       </c>
       <c r="BW11" t="n">
         <v>63.77</v>
@@ -5850,7 +5850,7 @@
         <v>8.140000000000001</v>
       </c>
       <c r="BY11" t="n">
-        <v>4.54999999999999</v>
+        <v>0.1099999999999852</v>
       </c>
       <c r="BZ11" t="n">
         <v>63.46</v>
@@ -5868,7 +5868,7 @@
         <v>-4.19</v>
       </c>
       <c r="CE11" t="n">
-        <v>5.340000000000011</v>
+        <v>0.5200000000000169</v>
       </c>
       <c r="CF11" t="n">
         <v>59.34</v>
@@ -5877,7 +5877,7 @@
         <v>4.24</v>
       </c>
       <c r="CH11" t="n">
-        <v>37.36</v>
+        <v>35.85</v>
       </c>
       <c r="CI11" t="n">
         <v>33.11</v>
@@ -5886,7 +5886,7 @@
         <v>-23.43</v>
       </c>
       <c r="CK11" t="n">
-        <v>1.670000000000002</v>
+        <v>0.6900000000000688</v>
       </c>
       <c r="CL11" t="n">
         <v>81.91</v>
@@ -5895,7 +5895,7 @@
         <v>-9.949999999999999</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.2900000000000009</v>
+        <v>0.06000000000000053</v>
       </c>
       <c r="CO11" t="n">
         <v>9</v>
@@ -5904,7 +5904,7 @@
         <v>1.83</v>
       </c>
       <c r="CQ11" t="n">
-        <v>2.399999999999999</v>
+        <v>2.060000000000015</v>
       </c>
       <c r="CR11" t="n">
         <v>41.47</v>
@@ -5913,7 +5913,7 @@
         <v>5.87</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.9599999999999982</v>
+        <v>0.399999999999996</v>
       </c>
       <c r="CU11" t="n">
         <v>30.83</v>
@@ -5922,7 +5922,7 @@
         <v>-3.32</v>
       </c>
       <c r="CW11" t="n">
-        <v>5.409999999999991</v>
+        <v>0.01999999999994095</v>
       </c>
       <c r="CX11" t="n">
         <v>81.33</v>
@@ -5940,7 +5940,7 @@
         <v>0.44</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.229999999999996</v>
+        <v>0.0799999999999883</v>
       </c>
       <c r="DD11" t="n">
         <v>19.76</v>
@@ -5949,7 +5949,7 @@
         <v>-2.75</v>
       </c>
       <c r="DF11" t="n">
-        <v>1.520000000000003</v>
+        <v>0.2400000000000029</v>
       </c>
       <c r="DG11" t="n">
         <v>47.99</v>
@@ -5958,7 +5958,7 @@
         <v>-4.6</v>
       </c>
       <c r="DI11" t="n">
-        <v>1.230000000000004</v>
+        <v>0.4900000000000015</v>
       </c>
       <c r="DJ11" t="n">
         <v>27.83</v>
@@ -5976,7 +5976,7 @@
         <v>-13.63</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.2099999999999999</v>
+        <v>0.01999999999999991</v>
       </c>
       <c r="DP11" t="n">
         <v>3.28</v>
@@ -6130,7 +6130,7 @@
         <v>-10.48</v>
       </c>
       <c r="H12" t="n">
-        <v>0.27</v>
+        <v>0.1199999999999996</v>
       </c>
       <c r="I12" t="n">
         <v>9.869999999999999</v>
@@ -6157,7 +6157,7 @@
         <v>56.29</v>
       </c>
       <c r="Q12" t="n">
-        <v>14.10999999999999</v>
+        <v>2.06999999999997</v>
       </c>
       <c r="R12" t="n">
         <v>129.12</v>
@@ -6166,7 +6166,7 @@
         <v>-7.64</v>
       </c>
       <c r="T12" t="n">
-        <v>2.069999999999999</v>
+        <v>0.3599999999999979</v>
       </c>
       <c r="U12" t="n">
         <v>24.52</v>
@@ -6175,7 +6175,7 @@
         <v>-18.11</v>
       </c>
       <c r="W12" t="n">
-        <v>1.959999999999996</v>
+        <v>0.4199999999999899</v>
       </c>
       <c r="X12" t="n">
         <v>39.99</v>
@@ -6184,7 +6184,7 @@
         <v>5.18</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.339999999999999</v>
+        <v>0.03999999999999269</v>
       </c>
       <c r="AA12" t="n">
         <v>10.87</v>
@@ -6202,7 +6202,7 @@
         <v>2.25</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.61</v>
+        <v>0.01999999999999869</v>
       </c>
       <c r="AG12" t="n">
         <v>3.95</v>
@@ -6211,7 +6211,7 @@
         <v>-10.07</v>
       </c>
       <c r="AI12" t="n">
-        <v>104.13</v>
+        <v>24.7400000000013</v>
       </c>
       <c r="AJ12" t="n">
         <v>1758.42</v>
@@ -6220,7 +6220,7 @@
         <v>-1.53</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.2400000000000002</v>
+        <v>0.120000000000001</v>
       </c>
       <c r="AM12" t="n">
         <v>4.44</v>
@@ -6229,7 +6229,7 @@
         <v>12.78</v>
       </c>
       <c r="AO12" t="n">
-        <v>2.149999999999999</v>
+        <v>0.07999999999999208</v>
       </c>
       <c r="AP12" t="n">
         <v>66.55</v>
@@ -6247,7 +6247,7 @@
         <v>-23.77</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.8799999999999992</v>
+        <v>0.4199999999999983</v>
       </c>
       <c r="AV12" t="n">
         <v>9.279999999999999</v>
@@ -6256,7 +6256,7 @@
         <v>-3.95</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.3100000000000018</v>
+        <v>0.0500000000000046</v>
       </c>
       <c r="AY12" t="n">
         <v>19.69</v>
@@ -6265,7 +6265,7 @@
         <v>1.33</v>
       </c>
       <c r="BA12" t="n">
-        <v>1.61</v>
+        <v>0.5299999999999991</v>
       </c>
       <c r="BB12" t="n">
         <v>12.25</v>
@@ -6274,7 +6274,7 @@
         <v>0.5</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.07999999999999974</v>
+        <v>0.05999999999999794</v>
       </c>
       <c r="BE12" t="n">
         <v>4.57</v>
@@ -6283,7 +6283,7 @@
         <v>-3.84</v>
       </c>
       <c r="BG12" t="n">
-        <v>1.76</v>
+        <v>0.279999999999998</v>
       </c>
       <c r="BH12" t="n">
         <v>19.22</v>
@@ -6292,7 +6292,7 @@
         <v>5.55</v>
       </c>
       <c r="BJ12" t="n">
-        <v>3.92</v>
+        <v>0.1300000000000008</v>
       </c>
       <c r="BK12" t="n">
         <v>30.38</v>
@@ -6301,7 +6301,7 @@
         <v>41.7</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.39</v>
+        <v>0.01999999999999941</v>
       </c>
       <c r="BN12" t="n">
         <v>2.38</v>
@@ -6310,7 +6310,7 @@
         <v>-11.1</v>
       </c>
       <c r="BP12" t="n">
-        <v>1.370000000000001</v>
+        <v>0.08999999999999897</v>
       </c>
       <c r="BQ12" t="n">
         <v>44.64</v>
@@ -6319,7 +6319,7 @@
         <v>17.64</v>
       </c>
       <c r="BS12" t="n">
-        <v>27.71</v>
+        <v>7.02</v>
       </c>
       <c r="BT12" t="n">
         <v>355.06</v>
@@ -6328,7 +6328,7 @@
         <v>18.93</v>
       </c>
       <c r="BV12" t="n">
-        <v>3.699999999999996</v>
+        <v>1.829999999999991</v>
       </c>
       <c r="BW12" t="n">
         <v>69.91</v>
@@ -6337,7 +6337,7 @@
         <v>6.41</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.6200000000000045</v>
+        <v>0.2900000000000489</v>
       </c>
       <c r="BZ12" t="n">
         <v>70.48999999999999</v>
@@ -6355,7 +6355,7 @@
         <v>-5.63</v>
       </c>
       <c r="CE12" t="n">
-        <v>2.399999999999993</v>
+        <v>1.359999999999959</v>
       </c>
       <c r="CF12" t="n">
         <v>59.39</v>
@@ -6373,7 +6373,7 @@
         <v>-37.85</v>
       </c>
       <c r="CK12" t="n">
-        <v>3.75</v>
+        <v>0.6699999999999868</v>
       </c>
       <c r="CL12" t="n">
         <v>91.79000000000001</v>
@@ -6382,7 +6382,7 @@
         <v>-8.85</v>
       </c>
       <c r="CN12" t="n">
-        <v>1.139999999999999</v>
+        <v>0.6699999999999966</v>
       </c>
       <c r="CO12" t="n">
         <v>10.05</v>
@@ -6400,7 +6400,7 @@
         <v>2.17</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.8600000000000017</v>
+        <v>0.1800000000000046</v>
       </c>
       <c r="CU12" t="n">
         <v>34.33</v>
@@ -6427,7 +6427,7 @@
         <v>8.609999999999999</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.9300000000000019</v>
+        <v>0.01000000000001799</v>
       </c>
       <c r="DD12" t="n">
         <v>21.91</v>
@@ -6436,7 +6436,7 @@
         <v>-2.87</v>
       </c>
       <c r="DF12" t="n">
-        <v>1.799999999999997</v>
+        <v>0.279999999999994</v>
       </c>
       <c r="DG12" t="n">
         <v>54.21</v>
@@ -6445,7 +6445,7 @@
         <v>-3.07</v>
       </c>
       <c r="DI12" t="n">
-        <v>1.489999999999997</v>
+        <v>0.2599999999999931</v>
       </c>
       <c r="DJ12" t="n">
         <v>29.6</v>
@@ -6454,7 +6454,7 @@
         <v>-5.34</v>
       </c>
       <c r="DL12" t="n">
-        <v>15.90999999999999</v>
+        <v>3.309999999999963</v>
       </c>
       <c r="DM12" t="n">
         <v>112.33</v>
@@ -6599,7 +6599,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.239999999999999</v>
+        <v>0.359999999999999</v>
       </c>
       <c r="C13" t="n">
         <v>5.21</v>
@@ -6608,7 +6608,7 @@
         <v>-4.47</v>
       </c>
       <c r="E13" t="n">
-        <v>9.469999999999999</v>
+        <v>0.3099999999999952</v>
       </c>
       <c r="F13" t="n">
         <v>12.89</v>
@@ -6617,7 +6617,7 @@
         <v>-4.28</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8900000000000001</v>
+        <v>0.2600000000000013</v>
       </c>
       <c r="I13" t="n">
         <v>1.26</v>
@@ -6644,7 +6644,7 @@
         <v>3.78</v>
       </c>
       <c r="Q13" t="n">
-        <v>10.46</v>
+        <v>0.3000000000000509</v>
       </c>
       <c r="R13" t="n">
         <v>19.19</v>
@@ -6653,7 +6653,7 @@
         <v>-4.68</v>
       </c>
       <c r="T13" t="n">
-        <v>1.950000000000001</v>
+        <v>0.8700000000000072</v>
       </c>
       <c r="U13" t="n">
         <v>3.49</v>
@@ -6662,7 +6662,7 @@
         <v>-7.87</v>
       </c>
       <c r="W13" t="n">
-        <v>3.35</v>
+        <v>0.1300000000000341</v>
       </c>
       <c r="X13" t="n">
         <v>6.04</v>
@@ -6671,7 +6671,7 @@
         <v>4.74</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.8400000000000001</v>
+        <v>0.08000000000001672</v>
       </c>
       <c r="AA13" t="n">
         <v>1.41</v>
@@ -6680,7 +6680,7 @@
         <v>-3.96</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.04</v>
+        <v>0.2399999999999957</v>
       </c>
       <c r="AD13" t="n">
         <v>3.7</v>
@@ -6689,7 +6689,7 @@
         <v>-2.88</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.37</v>
+        <v>0.1500000000000017</v>
       </c>
       <c r="AG13" t="n">
         <v>0.62</v>
@@ -6698,7 +6698,7 @@
         <v>1.41</v>
       </c>
       <c r="AI13" t="n">
-        <v>152.54</v>
+        <v>10.93999999999939</v>
       </c>
       <c r="AJ13" t="n">
         <v>252.42</v>
@@ -6707,7 +6707,7 @@
         <v>-1.56</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.39</v>
+        <v>0.1499999999999998</v>
       </c>
       <c r="AM13" t="n">
         <v>0.6</v>
@@ -6716,7 +6716,7 @@
         <v>10.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>6.09</v>
+        <v>3.700000000000025</v>
       </c>
       <c r="AP13" t="n">
         <v>8.84</v>
@@ -6725,7 +6725,7 @@
         <v>4.01</v>
       </c>
       <c r="AR13" t="n">
-        <v>5.789999999999999</v>
+        <v>2.059999999999989</v>
       </c>
       <c r="AS13" t="n">
         <v>8</v>
@@ -6734,7 +6734,7 @@
         <v>-4.48</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.7099999999999997</v>
+        <v>0.2900000000000014</v>
       </c>
       <c r="AV13" t="n">
         <v>1.38</v>
@@ -6743,7 +6743,7 @@
         <v>2.9</v>
       </c>
       <c r="AX13" t="n">
-        <v>1.53</v>
+        <v>0.5499999999999897</v>
       </c>
       <c r="AY13" t="n">
         <v>2.62</v>
@@ -6752,7 +6752,7 @@
         <v>2.58</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.9099999999999999</v>
+        <v>0.3800000000000008</v>
       </c>
       <c r="BB13" t="n">
         <v>1.48</v>
@@ -6761,7 +6761,7 @@
         <v>-8.5</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.5000000000000001</v>
+        <v>0.180000000000001</v>
       </c>
       <c r="BE13" t="n">
         <v>0.58</v>
@@ -6770,7 +6770,7 @@
         <v>-4.87</v>
       </c>
       <c r="BG13" t="n">
-        <v>1.67</v>
+        <v>0.08000000000000101</v>
       </c>
       <c r="BH13" t="n">
         <v>2.83</v>
@@ -6779,7 +6779,7 @@
         <v>-3.86</v>
       </c>
       <c r="BJ13" t="n">
-        <v>1.44</v>
+        <v>1.049999999999997</v>
       </c>
       <c r="BK13" t="n">
         <v>5.48</v>
@@ -6788,7 +6788,7 @@
         <v>39.62</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.37</v>
+        <v>0.3100000000000018</v>
       </c>
       <c r="BN13" t="n">
         <v>0.48</v>
@@ -6797,7 +6797,7 @@
         <v>20.94</v>
       </c>
       <c r="BP13" t="n">
-        <v>4.33</v>
+        <v>2.690000000000002</v>
       </c>
       <c r="BQ13" t="n">
         <v>6.69</v>
@@ -6806,7 +6806,7 @@
         <v>21.34</v>
       </c>
       <c r="BS13" t="n">
-        <v>30.81</v>
+        <v>3.099999999999998</v>
       </c>
       <c r="BT13" t="n">
         <v>49.3</v>
@@ -6815,7 +6815,7 @@
         <v>1.86</v>
       </c>
       <c r="BV13" t="n">
-        <v>6.170000000000002</v>
+        <v>0.640000000000015</v>
       </c>
       <c r="BW13" t="n">
         <v>9.699999999999999</v>
@@ -6824,7 +6824,7 @@
         <v>-6.99</v>
       </c>
       <c r="BY13" t="n">
-        <v>6.32</v>
+        <v>4.169999999999938</v>
       </c>
       <c r="BZ13" t="n">
         <v>9.27</v>
@@ -6833,7 +6833,7 @@
         <v>-3.63</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.98</v>
+        <v>0.6999999999999962</v>
       </c>
       <c r="CC13" t="n">
         <v>1.29</v>
@@ -6842,7 +6842,7 @@
         <v>-11.59</v>
       </c>
       <c r="CE13" t="n">
-        <v>5.58</v>
+        <v>0.780000000000014</v>
       </c>
       <c r="CF13" t="n">
         <v>9.699999999999999</v>
@@ -6860,7 +6860,7 @@
         <v>-14.48</v>
       </c>
       <c r="CK13" t="n">
-        <v>8.219999999999999</v>
+        <v>1.050000000000027</v>
       </c>
       <c r="CL13" t="n">
         <v>12.93</v>
@@ -6869,7 +6869,7 @@
         <v>-4.22</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.7700000000000002</v>
+        <v>0.04000000000000314</v>
       </c>
       <c r="CO13" t="n">
         <v>1.71</v>
@@ -6878,7 +6878,7 @@
         <v>19.06</v>
       </c>
       <c r="CQ13" t="n">
-        <v>2.92</v>
+        <v>1.159999999999998</v>
       </c>
       <c r="CR13" t="n">
         <v>7.26</v>
@@ -6887,7 +6887,7 @@
         <v>-3.45</v>
       </c>
       <c r="CT13" t="n">
-        <v>2.58</v>
+        <v>0.8599999999999963</v>
       </c>
       <c r="CU13" t="n">
         <v>4.31</v>
@@ -6896,7 +6896,7 @@
         <v>-5.15</v>
       </c>
       <c r="CW13" t="n">
-        <v>7.25</v>
+        <v>4.369999999999955</v>
       </c>
       <c r="CX13" t="n">
         <v>12.16</v>
@@ -6905,7 +6905,7 @@
         <v>-0.37</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.6100000000000001</v>
+        <v>0.0699999999999989</v>
       </c>
       <c r="DA13" t="n">
         <v>0.73</v>
@@ -6914,7 +6914,7 @@
         <v>-1.05</v>
       </c>
       <c r="DC13" t="n">
-        <v>1.75</v>
+        <v>0.1199999999999921</v>
       </c>
       <c r="DD13" t="n">
         <v>3.21</v>
@@ -6923,7 +6923,7 @@
         <v>1.22</v>
       </c>
       <c r="DF13" t="n">
-        <v>4.69</v>
+        <v>2.050000000000021</v>
       </c>
       <c r="DG13" t="n">
         <v>7.27</v>
@@ -6932,7 +6932,7 @@
         <v>-2.13</v>
       </c>
       <c r="DI13" t="n">
-        <v>2.39</v>
+        <v>0.1200000000000237</v>
       </c>
       <c r="DJ13" t="n">
         <v>4.68</v>
@@ -6941,7 +6941,7 @@
         <v>-1.98</v>
       </c>
       <c r="DL13" t="n">
-        <v>8.360000000000003</v>
+        <v>1.900000000000034</v>
       </c>
       <c r="DM13" t="n">
         <v>17.07</v>
@@ -6950,7 +6950,7 @@
         <v>-10.47</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.3799999999999999</v>
+        <v>0.3399999999999995</v>
       </c>
       <c r="DP13" t="n">
         <v>0.47</v>
@@ -7095,7 +7095,7 @@
         <v>2.7</v>
       </c>
       <c r="E14" t="n">
-        <v>7.550000000000001</v>
+        <v>0.3700000000000028</v>
       </c>
       <c r="F14" t="n">
         <v>22.11</v>
@@ -7104,7 +7104,7 @@
         <v>-3.6</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5</v>
+        <v>0.1199999999999991</v>
       </c>
       <c r="I14" t="n">
         <v>2.18</v>
@@ -7131,7 +7131,7 @@
         <v>56.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.7199999999999989</v>
+        <v>0.419999999999948</v>
       </c>
       <c r="R14" t="n">
         <v>31.62</v>
@@ -7149,7 +7149,7 @@
         <v>-2.2</v>
       </c>
       <c r="W14" t="n">
-        <v>3.120000000000001</v>
+        <v>0.2099999999999591</v>
       </c>
       <c r="X14" t="n">
         <v>10.13</v>
@@ -7167,7 +7167,7 @@
         <v>5</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.92</v>
+        <v>0.330000000000001</v>
       </c>
       <c r="AD14" t="n">
         <v>5.94</v>
@@ -7176,7 +7176,7 @@
         <v>1.6</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.3400000000000001</v>
+        <v>0.1699999999999997</v>
       </c>
       <c r="AG14" t="n">
         <v>1.08</v>
@@ -7185,7 +7185,7 @@
         <v>10.8</v>
       </c>
       <c r="AI14" t="n">
-        <v>150.18</v>
+        <v>4.950000000000003</v>
       </c>
       <c r="AJ14" t="n">
         <v>417.01</v>
@@ -7194,7 +7194,7 @@
         <v>2</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.33</v>
+        <v>0.03000000000000039</v>
       </c>
       <c r="AM14" t="n">
         <v>1.08</v>
@@ -7203,7 +7203,7 @@
         <v>16</v>
       </c>
       <c r="AO14" t="n">
-        <v>5.120000000000001</v>
+        <v>1.18</v>
       </c>
       <c r="AP14" t="n">
         <v>14.37</v>
@@ -7212,7 +7212,7 @@
         <v>-1.5</v>
       </c>
       <c r="AR14" t="n">
-        <v>3.000000000000002</v>
+        <v>0.9400000000000133</v>
       </c>
       <c r="AS14" t="n">
         <v>12.76</v>
@@ -7230,7 +7230,7 @@
         <v>3.1</v>
       </c>
       <c r="AX14" t="n">
-        <v>1.5</v>
+        <v>0.280000000000002</v>
       </c>
       <c r="AY14" t="n">
         <v>4.18</v>
@@ -7239,7 +7239,7 @@
         <v>2.4</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.7799999999999998</v>
+        <v>0.01999999999999824</v>
       </c>
       <c r="BB14" t="n">
         <v>2.49</v>
@@ -7248,7 +7248,7 @@
         <v>-1</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.3299999999999998</v>
+        <v>0.06999999999999901</v>
       </c>
       <c r="BE14" t="n">
         <v>1.05</v>
@@ -7257,7 +7257,7 @@
         <v>-6.1</v>
       </c>
       <c r="BG14" t="n">
-        <v>1.67</v>
+        <v>0.06999999999999984</v>
       </c>
       <c r="BH14" t="n">
         <v>4.51</v>
@@ -7284,7 +7284,7 @@
         <v>11.5</v>
       </c>
       <c r="BP14" t="n">
-        <v>3.65</v>
+        <v>0.6900000000000008</v>
       </c>
       <c r="BQ14" t="n">
         <v>14.43</v>
@@ -7293,7 +7293,7 @@
         <v>46.5</v>
       </c>
       <c r="BS14" t="n">
-        <v>6.830000000000002</v>
+        <v>0.6300000000000061</v>
       </c>
       <c r="BT14" t="n">
         <v>83.42</v>
@@ -7302,7 +7302,7 @@
         <v>5.3</v>
       </c>
       <c r="BV14" t="n">
-        <v>5.02</v>
+        <v>1.269999999999964</v>
       </c>
       <c r="BW14" t="n">
         <v>15.88</v>
@@ -7311,7 +7311,7 @@
         <v>-4.4</v>
       </c>
       <c r="BY14" t="n">
-        <v>5.73</v>
+        <v>0.03000000000000469</v>
       </c>
       <c r="BZ14" t="n">
         <v>15.47</v>
@@ -7320,7 +7320,7 @@
         <v>-2.9</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.8500000000000001</v>
+        <v>0.01000000000000201</v>
       </c>
       <c r="CC14" t="n">
         <v>2.31</v>
@@ -7329,7 +7329,7 @@
         <v>-5</v>
       </c>
       <c r="CE14" t="n">
-        <v>5.27</v>
+        <v>0.5299999999999649</v>
       </c>
       <c r="CF14" t="n">
         <v>15.29</v>
@@ -7347,7 +7347,7 @@
         <v>-14.8</v>
       </c>
       <c r="CK14" t="n">
-        <v>7.57</v>
+        <v>0.71</v>
       </c>
       <c r="CL14" t="n">
         <v>20.96</v>
@@ -7365,7 +7365,7 @@
         <v>29.7</v>
       </c>
       <c r="CQ14" t="n">
-        <v>1.25</v>
+        <v>0.09000000000000208</v>
       </c>
       <c r="CR14" t="n">
         <v>10.79</v>
@@ -7383,7 +7383,7 @@
         <v>-1.2</v>
       </c>
       <c r="CW14" t="n">
-        <v>7.050000000000001</v>
+        <v>0.520000000000012</v>
       </c>
       <c r="CX14" t="n">
         <v>19.44</v>
@@ -7392,7 +7392,7 @@
         <v>-0.1</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.47</v>
+        <v>0.04000000000000026</v>
       </c>
       <c r="DA14" t="n">
         <v>1.32</v>
@@ -7401,7 +7401,7 @@
         <v>-2.2</v>
       </c>
       <c r="DC14" t="n">
-        <v>1.46</v>
+        <v>0.4000000000000177</v>
       </c>
       <c r="DD14" t="n">
         <v>4.95</v>
@@ -7410,7 +7410,7 @@
         <v>0.6</v>
       </c>
       <c r="DF14" t="n">
-        <v>3.81</v>
+        <v>0.9199999999999973</v>
       </c>
       <c r="DG14" t="n">
         <v>12.1</v>
@@ -7419,7 +7419,7 @@
         <v>-0.1</v>
       </c>
       <c r="DI14" t="n">
-        <v>2.32</v>
+        <v>0.3999999999999703</v>
       </c>
       <c r="DJ14" t="n">
         <v>7.15</v>
@@ -7573,7 +7573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.41</v>
+        <v>2.369999999999996</v>
       </c>
       <c r="C15" t="n">
         <v>12.17</v>
@@ -7582,7 +7582,7 @@
         <v>-0.3</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5</v>
+        <v>0.1299999999999972</v>
       </c>
       <c r="F15" t="n">
         <v>29.95</v>
@@ -7591,7 +7591,7 @@
         <v>-1.7</v>
       </c>
       <c r="H15" t="n">
-        <v>1.86</v>
+        <v>0.3600000000000001</v>
       </c>
       <c r="I15" t="n">
         <v>2.8</v>
@@ -7600,7 +7600,7 @@
         <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5700000000000003</v>
+        <v>0.1200000000000006</v>
       </c>
       <c r="L15" t="n">
         <v>2.45</v>
@@ -7627,7 +7627,7 @@
         <v>2.7</v>
       </c>
       <c r="T15" t="n">
-        <v>0.140000000000001</v>
+        <v>0.02000000000000311</v>
       </c>
       <c r="U15" t="n">
         <v>7.75</v>
@@ -7672,7 +7672,7 @@
         <v>21.7</v>
       </c>
       <c r="AI15" t="n">
-        <v>139.76</v>
+        <v>37.98999999999999</v>
       </c>
       <c r="AJ15" t="n">
         <v>569.5</v>
@@ -7690,7 +7690,7 @@
         <v>12.6</v>
       </c>
       <c r="AO15" t="n">
-        <v>4.669999999999998</v>
+        <v>2.309999999999998</v>
       </c>
       <c r="AP15" t="n">
         <v>19.57</v>
@@ -7699,7 +7699,7 @@
         <v>-0.7</v>
       </c>
       <c r="AR15" t="n">
-        <v>1.399999999999996</v>
+        <v>0.4599999999999826</v>
       </c>
       <c r="AS15" t="n">
         <v>17.44</v>
@@ -7708,7 +7708,7 @@
         <v>1.6</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.75</v>
+        <v>0.02999999999999839</v>
       </c>
       <c r="AV15" t="n">
         <v>2.96</v>
@@ -7717,7 +7717,7 @@
         <v>0.9</v>
       </c>
       <c r="AX15" t="n">
-        <v>1.33</v>
+        <v>0.769999999999996</v>
       </c>
       <c r="AY15" t="n">
         <v>5.63</v>
@@ -7744,7 +7744,7 @@
         <v>1.2</v>
       </c>
       <c r="BG15" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="BH15" t="n">
         <v>6.07</v>
@@ -7780,7 +7780,7 @@
         <v>35.7</v>
       </c>
       <c r="BS15" t="n">
-        <v>23.31999999999999</v>
+        <v>5.29999999999998</v>
       </c>
       <c r="BT15" t="n">
         <v>118.21</v>
@@ -7798,7 +7798,7 @@
         <v>-1.5</v>
       </c>
       <c r="BY15" t="n">
-        <v>5.09</v>
+        <v>5.02999999999999</v>
       </c>
       <c r="BZ15" t="n">
         <v>21.52</v>
@@ -7807,7 +7807,7 @@
         <v>-0.7</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.06999999999999984</v>
+        <v>0.05999999999999783</v>
       </c>
       <c r="CC15" t="n">
         <v>3.13</v>
@@ -7843,7 +7843,7 @@
         <v>-2.7</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.03999999999999959</v>
+        <v>0.01999999999999979</v>
       </c>
       <c r="CO15" t="n">
         <v>3.77</v>
@@ -7852,7 +7852,7 @@
         <v>25.8</v>
       </c>
       <c r="CQ15" t="n">
-        <v>4.010000000000002</v>
+        <v>1.329999999999998</v>
       </c>
       <c r="CR15" t="n">
         <v>15.09</v>
@@ -7861,7 +7861,7 @@
         <v>3.3</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.1700000000000013</v>
+        <v>0.01000000000000381</v>
       </c>
       <c r="CU15" t="n">
         <v>9.890000000000001</v>
@@ -7870,7 +7870,7 @@
         <v>1.1</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.6699999999999946</v>
+        <v>0.1499999999999826</v>
       </c>
       <c r="CX15" t="n">
         <v>26.43</v>
@@ -7879,7 +7879,7 @@
         <v>-0.3</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.4200000000000002</v>
+        <v>0.3399999999999996</v>
       </c>
       <c r="DA15" t="n">
         <v>1.94</v>
@@ -8069,7 +8069,7 @@
         <v>-1.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2600000000000016</v>
+        <v>0.1300000000000044</v>
       </c>
       <c r="F16" t="n">
         <v>37.29</v>
@@ -8078,7 +8078,7 @@
         <v>-3.2</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9500000000000002</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="I16" t="n">
         <v>2.75</v>
@@ -8087,7 +8087,7 @@
         <v>16.5</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1699999999999995</v>
+        <v>0.04999999999999891</v>
       </c>
       <c r="L16" t="n">
         <v>3.15</v>
@@ -8114,7 +8114,7 @@
         <v>2.6</v>
       </c>
       <c r="T16" t="n">
-        <v>1.710000000000001</v>
+        <v>1.509999999999991</v>
       </c>
       <c r="U16" t="n">
         <v>9.94</v>
@@ -8132,7 +8132,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.2100000000000002</v>
+        <v>0.090000000000001</v>
       </c>
       <c r="AA16" t="n">
         <v>4.08</v>
@@ -8141,7 +8141,7 @@
         <v>0.1</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.439999999999999</v>
+        <v>0.5999999999999952</v>
       </c>
       <c r="AD16" t="n">
         <v>10.14</v>
@@ -8168,7 +8168,7 @@
         <v>2.4</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.0299999999999998</v>
+        <v>0.009999999999999731</v>
       </c>
       <c r="AM16" t="n">
         <v>1.78</v>
@@ -8186,7 +8186,7 @@
         <v>-0.6</v>
       </c>
       <c r="AR16" t="n">
-        <v>4.129999999999999</v>
+        <v>0.8700000000000243</v>
       </c>
       <c r="AS16" t="n">
         <v>22.38</v>
@@ -8213,7 +8213,7 @@
         <v>1.1</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.3199999999999967</v>
       </c>
       <c r="BB16" t="n">
         <v>4.01</v>
@@ -8222,7 +8222,7 @@
         <v>-5.1</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.08999999999999991</v>
+        <v>0.009999999999999287</v>
       </c>
       <c r="BE16" t="n">
         <v>1.77</v>
@@ -8240,7 +8240,7 @@
         <v>2</v>
       </c>
       <c r="BJ16" t="n">
-        <v>1.6</v>
+        <v>0.5999999999999954</v>
       </c>
       <c r="BK16" t="n">
         <v>13.41</v>
@@ -8258,7 +8258,7 @@
         <v>3.3</v>
       </c>
       <c r="BP16" t="n">
-        <v>3.489999999999998</v>
+        <v>2.729999999999998</v>
       </c>
       <c r="BQ16" t="n">
         <v>23.44</v>
@@ -8267,7 +8267,7 @@
         <v>35.2</v>
       </c>
       <c r="BS16" t="n">
-        <v>9.860000000000017</v>
+        <v>0.2000000000000277</v>
       </c>
       <c r="BT16" t="n">
         <v>146.24</v>
@@ -8294,7 +8294,7 @@
         <v>2.3</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.03000000000000026</v>
       </c>
       <c r="CC16" t="n">
         <v>4.1</v>
@@ -8303,7 +8303,7 @@
         <v>-2.6</v>
       </c>
       <c r="CE16" t="n">
-        <v>5.120000000000001</v>
+        <v>3.480000000000001</v>
       </c>
       <c r="CF16" t="n">
         <v>26.04</v>
@@ -8321,7 +8321,7 @@
         <v>-3.1</v>
       </c>
       <c r="CK16" t="n">
-        <v>7.509999999999998</v>
+        <v>6.869999999999983</v>
       </c>
       <c r="CL16" t="n">
         <v>35.84</v>
@@ -8330,7 +8330,7 @@
         <v>-3.2</v>
       </c>
       <c r="CN16" t="n">
-        <v>0.7900000000000005</v>
+        <v>0.6900000000000015</v>
       </c>
       <c r="CO16" t="n">
         <v>4.67</v>
@@ -8339,7 +8339,7 @@
         <v>22.3</v>
       </c>
       <c r="CQ16" t="n">
-        <v>3.399999999999999</v>
+        <v>0.639999999999997</v>
       </c>
       <c r="CR16" t="n">
         <v>19.26</v>
@@ -8348,7 +8348,7 @@
         <v>3.4</v>
       </c>
       <c r="CT16" t="n">
-        <v>2.74</v>
+        <v>2.459999999999988</v>
       </c>
       <c r="CU16" t="n">
         <v>12.77</v>
@@ -8357,7 +8357,7 @@
         <v>1.2</v>
       </c>
       <c r="CW16" t="n">
-        <v>0.4500000000000064</v>
+        <v>0.3000000000000238</v>
       </c>
       <c r="CX16" t="n">
         <v>33.36</v>
@@ -8375,7 +8375,7 @@
         <v>4.1</v>
       </c>
       <c r="DC16" t="n">
-        <v>1.6</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="DD16" t="n">
         <v>8.640000000000001</v>
@@ -8384,7 +8384,7 @@
         <v>4.5</v>
       </c>
       <c r="DF16" t="n">
-        <v>1.059999999999999</v>
+        <v>0.8199999999999952</v>
       </c>
       <c r="DG16" t="n">
         <v>19.96</v>
@@ -8393,7 +8393,7 @@
         <v>0.8</v>
       </c>
       <c r="DI16" t="n">
-        <v>2.26</v>
+        <v>2.060000000000003</v>
       </c>
       <c r="DJ16" t="n">
         <v>11.75</v>
@@ -8402,7 +8402,7 @@
         <v>-0.9</v>
       </c>
       <c r="DL16" t="n">
-        <v>8.730000000000004</v>
+        <v>8.290000000000006</v>
       </c>
       <c r="DM16" t="n">
         <v>47.49</v>
@@ -8411,7 +8411,7 @@
         <v>-0.1</v>
       </c>
       <c r="DO16" t="n">
-        <v>0.29</v>
+        <v>0.2899999999999996</v>
       </c>
       <c r="DP16" t="n">
         <v>1.55</v>
@@ -8547,7 +8547,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.689999999999998</v>
+        <v>2.64999999999999</v>
       </c>
       <c r="C17" t="n">
         <v>18.71</v>
@@ -8556,7 +8556,7 @@
         <v>-1.7</v>
       </c>
       <c r="E17" t="n">
-        <v>1.469999999999992</v>
+        <v>0.4299999999999852</v>
       </c>
       <c r="F17" t="n">
         <v>45.68</v>
@@ -8565,7 +8565,7 @@
         <v>-2.5</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9300000000000002</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="I17" t="n">
         <v>3.73</v>
@@ -8574,7 +8574,7 @@
         <v>12.6</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5700000000000003</v>
+        <v>0.06000000000000177</v>
       </c>
       <c r="L17" t="n">
         <v>3.87</v>
@@ -8592,7 +8592,7 @@
         <v>47.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.7100000000000115</v>
+        <v>0.1499999999999736</v>
       </c>
       <c r="R17" t="n">
         <v>66.19</v>
@@ -8610,7 +8610,7 @@
         <v>3.3</v>
       </c>
       <c r="W17" t="n">
-        <v>2.609999999999999</v>
+        <v>2.529999999999999</v>
       </c>
       <c r="X17" t="n">
         <v>20.49</v>
@@ -8619,7 +8619,7 @@
         <v>9.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.8499999999999996</v>
+        <v>0.1899999999999977</v>
       </c>
       <c r="AA17" t="n">
         <v>5.17</v>
@@ -8628,7 +8628,7 @@
         <v>-0.3</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.9900000000000002</v>
+        <v>0.1800000000000042</v>
       </c>
       <c r="AD17" t="n">
         <v>12.59</v>
@@ -8637,7 +8637,7 @@
         <v>-6.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.29</v>
+        <v>0.0100000000000002</v>
       </c>
       <c r="AG17" t="n">
         <v>2.26</v>
@@ -8646,7 +8646,7 @@
         <v>16.1</v>
       </c>
       <c r="AI17" t="n">
-        <v>138.5699999999999</v>
+        <v>67.24999999999987</v>
       </c>
       <c r="AJ17" t="n">
         <v>882.51</v>
@@ -8655,7 +8655,7 @@
         <v>3</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.28</v>
+        <v>0.2200000000000011</v>
       </c>
       <c r="AM17" t="n">
         <v>2.17</v>
@@ -8664,7 +8664,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AO17" t="n">
-        <v>4.059999999999995</v>
+        <v>1.68999999999999</v>
       </c>
       <c r="AP17" t="n">
         <v>30.87</v>
@@ -8691,7 +8691,7 @@
         <v>2.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>1.340000000000002</v>
+        <v>0.8200000000000061</v>
       </c>
       <c r="AY17" t="n">
         <v>8.57</v>
@@ -8700,7 +8700,7 @@
         <v>2.4</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.7299999999999995</v>
+        <v>0.1100000000000012</v>
       </c>
       <c r="BB17" t="n">
         <v>4.92</v>
@@ -8709,7 +8709,7 @@
         <v>-4.4</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.29</v>
+        <v>0.1300000000000019</v>
       </c>
       <c r="BE17" t="n">
         <v>2.15</v>
@@ -8718,7 +8718,7 @@
         <v>-5.3</v>
       </c>
       <c r="BG17" t="n">
-        <v>1.470000000000001</v>
+        <v>0.630000000000001</v>
       </c>
       <c r="BH17" t="n">
         <v>9.970000000000001</v>
@@ -8736,7 +8736,7 @@
         <v>37.7</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.21</v>
+        <v>0.08999999999999979</v>
       </c>
       <c r="BN17" t="n">
         <v>1.5</v>
@@ -8754,7 +8754,7 @@
         <v>25.1</v>
       </c>
       <c r="BS17" t="n">
-        <v>24.73000000000002</v>
+        <v>4.809999999999954</v>
       </c>
       <c r="BT17" t="n">
         <v>185.3</v>
@@ -8763,7 +8763,7 @@
         <v>6.9</v>
       </c>
       <c r="BV17" t="n">
-        <v>5.75</v>
+        <v>2.910000000000011</v>
       </c>
       <c r="BW17" t="n">
         <v>33.48</v>
@@ -8772,7 +8772,7 @@
         <v>-3.8</v>
       </c>
       <c r="BY17" t="n">
-        <v>5.769999999999996</v>
+        <v>1.749999999999992</v>
       </c>
       <c r="BZ17" t="n">
         <v>34.9</v>
@@ -8781,7 +8781,7 @@
         <v>3.1</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.9699999999999991</v>
+        <v>0.7799999999999983</v>
       </c>
       <c r="CC17" t="n">
         <v>5.18</v>
@@ -8790,7 +8790,7 @@
         <v>-1.1</v>
       </c>
       <c r="CE17" t="n">
-        <v>4.709999999999997</v>
+        <v>0.4099999999999966</v>
       </c>
       <c r="CF17" t="n">
         <v>30.94</v>
@@ -8799,7 +8799,7 @@
         <v>-2.7</v>
       </c>
       <c r="CH17" t="n">
-        <v>2.059999999999999</v>
+        <v>0.3399999999999981</v>
       </c>
       <c r="CI17" t="n">
         <v>19.89</v>
@@ -8808,7 +8808,7 @@
         <v>-6.9</v>
       </c>
       <c r="CK17" t="n">
-        <v>7.210000000000001</v>
+        <v>0.02000000000001023</v>
       </c>
       <c r="CL17" t="n">
         <v>44.25</v>
@@ -8826,7 +8826,7 @@
         <v>19.3</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.9099999999999997</v>
+        <v>0.2700000000000027</v>
       </c>
       <c r="CR17" t="n">
         <v>23.13</v>
@@ -8844,7 +8844,7 @@
         <v>0.9</v>
       </c>
       <c r="CW17" t="n">
-        <v>6.950000000000003</v>
+        <v>5.149999999999976</v>
       </c>
       <c r="CX17" t="n">
         <v>41.6</v>
@@ -8853,7 +8853,7 @@
         <v>-1.9</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.52</v>
+        <v>0.2300000000000002</v>
       </c>
       <c r="DA17" t="n">
         <v>2.87</v>
@@ -8862,7 +8862,7 @@
         <v>-2.7</v>
       </c>
       <c r="DC17" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.07000000000000006</v>
       </c>
       <c r="DD17" t="n">
         <v>11.33</v>
@@ -8871,7 +8871,7 @@
         <v>14.8</v>
       </c>
       <c r="DF17" t="n">
-        <v>3.699999999999999</v>
+        <v>0.7000000000000048</v>
       </c>
       <c r="DG17" t="n">
         <v>25.35</v>
@@ -9043,7 +9043,7 @@
         <v>-0.3</v>
       </c>
       <c r="E18" t="n">
-        <v>7.839999999999996</v>
+        <v>3.52000000000004</v>
       </c>
       <c r="F18" t="n">
         <v>53.53</v>
@@ -9079,7 +9079,7 @@
         <v>42</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.639999999999988</v>
+        <v>3.639999999999999</v>
       </c>
       <c r="R18" t="n">
         <v>76.23</v>
@@ -9088,7 +9088,7 @@
         <v>-1.9</v>
       </c>
       <c r="T18" t="n">
-        <v>1.850000000000001</v>
+        <v>1.130000000000009</v>
       </c>
       <c r="U18" t="n">
         <v>13.81</v>
@@ -9106,7 +9106,7 @@
         <v>11.1</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.8200000000000003</v>
+        <v>0.1800000000000008</v>
       </c>
       <c r="AA18" t="n">
         <v>6.08</v>
@@ -9115,7 +9115,7 @@
         <v>0.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.049999999999999</v>
+        <v>0.05999999999999872</v>
       </c>
       <c r="AD18" t="n">
         <v>14.88</v>
@@ -9124,7 +9124,7 @@
         <v>2.9</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.3400000000000003</v>
+        <v>0.02999999999999992</v>
       </c>
       <c r="AG18" t="n">
         <v>2.79</v>
@@ -9169,7 +9169,7 @@
         <v>6.4</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.5899999999999999</v>
+        <v>0.4699999999999971</v>
       </c>
       <c r="AV18" t="n">
         <v>5.38</v>
@@ -9187,7 +9187,7 @@
         <v>1.6</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.2500000000000009</v>
+        <v>0.1399999999999997</v>
       </c>
       <c r="BB18" t="n">
         <v>5.98</v>
@@ -9196,7 +9196,7 @@
         <v>1.6</v>
       </c>
       <c r="BD18" t="n">
-        <v>0.23</v>
+        <v>0.02999999999999992</v>
       </c>
       <c r="BE18" t="n">
         <v>2.46</v>
@@ -9214,7 +9214,7 @@
         <v>-1.3</v>
       </c>
       <c r="BJ18" t="n">
-        <v>2.620000000000003</v>
+        <v>0.4600000000000084</v>
       </c>
       <c r="BK18" t="n">
         <v>18.19</v>
@@ -9259,7 +9259,7 @@
         <v>-6.1</v>
       </c>
       <c r="BY18" t="n">
-        <v>5.600000000000001</v>
+        <v>0.09000000000001496</v>
       </c>
       <c r="BZ18" t="n">
         <v>40.11</v>
@@ -9268,7 +9268,7 @@
         <v>1.2</v>
       </c>
       <c r="CB18" t="n">
-        <v>5.15</v>
+        <v>1.660000000000003</v>
       </c>
       <c r="CC18" t="n">
         <v>5.88</v>
@@ -9277,7 +9277,7 @@
         <v>-18.5</v>
       </c>
       <c r="CE18" t="n">
-        <v>1.290000000000003</v>
+        <v>0.8800000000000063</v>
       </c>
       <c r="CF18" t="n">
         <v>34.35</v>
@@ -9286,7 +9286,7 @@
         <v>-5.9</v>
       </c>
       <c r="CH18" t="n">
-        <v>1.100000000000001</v>
+        <v>0.08000000000000673</v>
       </c>
       <c r="CI18" t="n">
         <v>22.47</v>
@@ -9295,7 +9295,7 @@
         <v>-4.1</v>
       </c>
       <c r="CK18" t="n">
-        <v>7.100000000000001</v>
+        <v>7.079999999999991</v>
       </c>
       <c r="CL18" t="n">
         <v>51.38</v>
@@ -9304,7 +9304,7 @@
         <v>-0.7</v>
       </c>
       <c r="CN18" t="n">
-        <v>0.7800000000000002</v>
+        <v>0.1800000000000038</v>
       </c>
       <c r="CO18" t="n">
         <v>6.59</v>
@@ -9313,7 +9313,7 @@
         <v>17.8</v>
       </c>
       <c r="CQ18" t="n">
-        <v>3.48</v>
+        <v>0.4799999999999975</v>
       </c>
       <c r="CR18" t="n">
         <v>27.42</v>
@@ -9322,7 +9322,7 @@
         <v>4.1</v>
       </c>
       <c r="CT18" t="n">
-        <v>2.859999999999999</v>
+        <v>1.859999999999991</v>
       </c>
       <c r="CU18" t="n">
         <v>18.46</v>
@@ -9340,7 +9340,7 @@
         <v>-2.3</v>
       </c>
       <c r="CZ18" t="n">
-        <v>0.4499999999999997</v>
+        <v>0.2199999999999995</v>
       </c>
       <c r="DA18" t="n">
         <v>3.35</v>
@@ -9349,7 +9349,7 @@
         <v>-3.3</v>
       </c>
       <c r="DC18" t="n">
-        <v>1.030000000000001</v>
+        <v>0.1500000000000008</v>
       </c>
       <c r="DD18" t="n">
         <v>13.3</v>
@@ -9367,7 +9367,7 @@
         <v>1.6</v>
       </c>
       <c r="DI18" t="n">
-        <v>2.440000000000001</v>
+        <v>0.8800000000000008</v>
       </c>
       <c r="DJ18" t="n">
         <v>16.81</v>
@@ -9376,7 +9376,7 @@
         <v>0.2</v>
       </c>
       <c r="DL18" t="n">
-        <v>1.080000000000014</v>
+        <v>0.290000000000022</v>
       </c>
       <c r="DM18" t="n">
         <v>68.39</v>
@@ -9385,7 +9385,7 @@
         <v>3.9</v>
       </c>
       <c r="DO18" t="n">
-        <v>0.29</v>
+        <v>0.08999999999999961</v>
       </c>
       <c r="DP18" t="n">
         <v>2.32</v>
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.489999999999994</v>
+        <v>0.04999999999998922</v>
       </c>
       <c r="C19" t="n">
         <v>24.69</v>
@@ -9548,7 +9548,7 @@
         <v>4.6</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1799999999999997</v>
+        <v>0.1400000000000005</v>
       </c>
       <c r="L19" t="n">
         <v>5.09</v>
@@ -9557,7 +9557,7 @@
         <v>4.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.02</v>
+        <v>1.734723475976807e-18</v>
       </c>
       <c r="O19" t="n">
         <v>0.03</v>
@@ -9566,7 +9566,7 @@
         <v>8.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.709999999999994</v>
+        <v>0.3500000000000192</v>
       </c>
       <c r="R19" t="n">
         <v>87.36</v>
@@ -9575,7 +9575,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="T19" t="n">
-        <v>1.779999999999998</v>
+        <v>0.109999999999995</v>
       </c>
       <c r="U19" t="n">
         <v>15.76</v>
@@ -9584,7 +9584,7 @@
         <v>2</v>
       </c>
       <c r="W19" t="n">
-        <v>3.220000000000002</v>
+        <v>0.06000000000000183</v>
       </c>
       <c r="X19" t="n">
         <v>27.15</v>
@@ -9602,7 +9602,7 @@
         <v>-2.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.1500000000000017</v>
+        <v>0.03000000000000425</v>
       </c>
       <c r="AD19" t="n">
         <v>17.04</v>
@@ -9611,7 +9611,7 @@
         <v>3.3</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.1299999999999995</v>
+        <v>0.02999999999999886</v>
       </c>
       <c r="AG19" t="n">
         <v>3.18</v>
@@ -9629,7 +9629,7 @@
         <v>1.4</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.3599999999999999</v>
+        <v>0.04000000000000012</v>
       </c>
       <c r="AM19" t="n">
         <v>2.86</v>
@@ -9638,7 +9638,7 @@
         <v>5.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>5.100000000000001</v>
+        <v>0.4199999999999711</v>
       </c>
       <c r="AP19" t="n">
         <v>41.11</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0.1800000000000033</v>
+        <v>0.1000000000000049</v>
       </c>
       <c r="AS19" t="n">
         <v>36.32</v>
@@ -9665,7 +9665,7 @@
         <v>3.7</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.240000000000002</v>
+        <v>0.03000000000001436</v>
       </c>
       <c r="AY19" t="n">
         <v>11.51</v>
@@ -9674,7 +9674,7 @@
         <v>3.5</v>
       </c>
       <c r="BA19" t="n">
-        <v>0.9299999999999997</v>
+        <v>0.179999999999997</v>
       </c>
       <c r="BB19" t="n">
         <v>6.7</v>
@@ -9683,7 +9683,7 @@
         <v>-2.4</v>
       </c>
       <c r="BD19" t="n">
-        <v>0.1400000000000001</v>
+        <v>0.08000000000000028</v>
       </c>
       <c r="BE19" t="n">
         <v>2.76</v>
@@ -9701,7 +9701,7 @@
         <v>-0.2</v>
       </c>
       <c r="BJ19" t="n">
-        <v>2.559999999999999</v>
+        <v>0.4799999999999942</v>
       </c>
       <c r="BK19" t="n">
         <v>20.41</v>
@@ -9710,7 +9710,7 @@
         <v>12</v>
       </c>
       <c r="BM19" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.02000000000000003</v>
       </c>
       <c r="BN19" t="n">
         <v>1.83</v>
@@ -9719,7 +9719,7 @@
         <v>-3.6</v>
       </c>
       <c r="BP19" t="n">
-        <v>4.319999999999997</v>
+        <v>0.05999999999999917</v>
       </c>
       <c r="BQ19" t="n">
         <v>33.57</v>
@@ -9728,7 +9728,7 @@
         <v>20.1</v>
       </c>
       <c r="BS19" t="n">
-        <v>14.91000000000005</v>
+        <v>2.130000000000171</v>
       </c>
       <c r="BT19" t="n">
         <v>242.73</v>
@@ -9737,7 +9737,7 @@
         <v>6.9</v>
       </c>
       <c r="BV19" t="n">
-        <v>4.810000000000002</v>
+        <v>2.160000000000003</v>
       </c>
       <c r="BW19" t="n">
         <v>44.79</v>
@@ -9746,7 +9746,7 @@
         <v>-8.5</v>
       </c>
       <c r="BY19" t="n">
-        <v>0.509999999999998</v>
+        <v>0.4199999999999831</v>
       </c>
       <c r="BZ19" t="n">
         <v>44.88</v>
@@ -9764,7 +9764,7 @@
         <v>-3.1</v>
       </c>
       <c r="CE19" t="n">
-        <v>4.910000000000004</v>
+        <v>1.039999999999995</v>
       </c>
       <c r="CF19" t="n">
         <v>38.48</v>
@@ -9773,7 +9773,7 @@
         <v>-9.5</v>
       </c>
       <c r="CH19" t="n">
-        <v>1.850000000000001</v>
+        <v>0.3299999999999952</v>
       </c>
       <c r="CI19" t="n">
         <v>26.35</v>
@@ -9800,7 +9800,7 @@
         <v>19.4</v>
       </c>
       <c r="CQ19" t="n">
-        <v>1.030000000000002</v>
+        <v>0.2800000000000018</v>
       </c>
       <c r="CR19" t="n">
         <v>30.65</v>
@@ -9818,7 +9818,7 @@
         <v>5.1</v>
       </c>
       <c r="CW19" t="n">
-        <v>6.960000000000001</v>
+        <v>2.560000000000024</v>
       </c>
       <c r="CX19" t="n">
         <v>55.17</v>
@@ -9836,7 +9836,7 @@
         <v>4.6</v>
       </c>
       <c r="DC19" t="n">
-        <v>1.289999999999999</v>
+        <v>0.03999999999999712</v>
       </c>
       <c r="DD19" t="n">
         <v>15.97</v>
@@ -9845,7 +9845,7 @@
         <v>20</v>
       </c>
       <c r="DF19" t="n">
-        <v>0.9399999999999977</v>
+        <v>0.2799999999999931</v>
       </c>
       <c r="DG19" t="n">
         <v>33.13</v>
@@ -9863,7 +9863,7 @@
         <v>-2.9</v>
       </c>
       <c r="DL19" t="n">
-        <v>9.899999999999991</v>
+        <v>7.94999999999991</v>
       </c>
       <c r="DM19" t="n">
         <v>78.8</v>
@@ -9872,7 +9872,7 @@
         <v>3.1</v>
       </c>
       <c r="DO19" t="n">
-        <v>0.1599999999999997</v>
+        <v>0.01999999999999999</v>
       </c>
       <c r="DP19" t="n">
         <v>2.57</v>
@@ -10008,7 +10008,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.960000000000001</v>
+        <v>2.32000000000004</v>
       </c>
       <c r="C20" t="n">
         <v>28.6</v>
@@ -10017,7 +10017,7 @@
         <v>0.4</v>
       </c>
       <c r="E20" t="n">
-        <v>7.140000000000001</v>
+        <v>3.019999999999968</v>
       </c>
       <c r="F20" t="n">
         <v>70.58</v>
@@ -10026,7 +10026,7 @@
         <v>-3.7</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.2899999999999993</v>
       </c>
       <c r="I20" t="n">
         <v>6.14</v>
@@ -10044,7 +10044,7 @@
         <v>4.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.01</v>
+        <v>0.009999999999999997</v>
       </c>
       <c r="O20" t="n">
         <v>0.04</v>
@@ -10053,7 +10053,7 @@
         <v>6.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>6.650000000000006</v>
+        <v>1.589999999999993</v>
       </c>
       <c r="R20" t="n">
         <v>98.34</v>
@@ -10062,7 +10062,7 @@
         <v>-2.2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.460000000000001</v>
+        <v>1.240000000000011</v>
       </c>
       <c r="U20" t="n">
         <v>18.45</v>
@@ -10080,7 +10080,7 @@
         <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.6900000000000004</v>
+        <v>0.1700000000000044</v>
       </c>
       <c r="AA20" t="n">
         <v>7.6</v>
@@ -10089,7 +10089,7 @@
         <v>-2.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.129999999999999</v>
+        <v>1.709999999999988</v>
       </c>
       <c r="AD20" t="n">
         <v>18.88</v>
@@ -10107,7 +10107,7 @@
         <v>11.4</v>
       </c>
       <c r="AI20" t="n">
-        <v>141.5899999999999</v>
+        <v>138.7899999999995</v>
       </c>
       <c r="AJ20" t="n">
         <v>1330.97</v>
@@ -10125,7 +10125,7 @@
         <v>7.8</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.769999999999996</v>
+        <v>0.3500000000000249</v>
       </c>
       <c r="AP20" t="n">
         <v>46.43</v>
@@ -10134,7 +10134,7 @@
         <v>0.5</v>
       </c>
       <c r="AR20" t="n">
-        <v>4.399999999999999</v>
+        <v>3.799999999999983</v>
       </c>
       <c r="AS20" t="n">
         <v>41.36</v>
@@ -10143,7 +10143,7 @@
         <v>6</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.2299999999999995</v>
+        <v>0.1099999999999985</v>
       </c>
       <c r="AV20" t="n">
         <v>7.04</v>
@@ -10152,7 +10152,7 @@
         <v>7.2</v>
       </c>
       <c r="AX20" t="n">
-        <v>1.130000000000001</v>
+        <v>0.5899999999999683</v>
       </c>
       <c r="AY20" t="n">
         <v>13.22</v>
@@ -10161,7 +10161,7 @@
         <v>3.6</v>
       </c>
       <c r="BA20" t="n">
-        <v>0.6599999999999993</v>
+        <v>0.0500000000000044</v>
       </c>
       <c r="BB20" t="n">
         <v>7.61</v>
@@ -10170,7 +10170,7 @@
         <v>-2.3</v>
       </c>
       <c r="BD20" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.04999999999999979</v>
       </c>
       <c r="BE20" t="n">
         <v>3.13</v>
@@ -10179,7 +10179,7 @@
         <v>-1.2</v>
       </c>
       <c r="BG20" t="n">
-        <v>1.540000000000001</v>
+        <v>1.299999999999997</v>
       </c>
       <c r="BH20" t="n">
         <v>13.95</v>
@@ -10188,7 +10188,7 @@
         <v>-3.2</v>
       </c>
       <c r="BJ20" t="n">
-        <v>1.07</v>
+        <v>0.1100000000000116</v>
       </c>
       <c r="BK20" t="n">
         <v>22.62</v>
@@ -10197,7 +10197,7 @@
         <v>8.9</v>
       </c>
       <c r="BM20" t="n">
-        <v>0.2999999999999998</v>
+        <v>0.01999999999999948</v>
       </c>
       <c r="BN20" t="n">
         <v>2.14</v>
@@ -10206,7 +10206,7 @@
         <v>-4.3</v>
       </c>
       <c r="BP20" t="n">
-        <v>3.510000000000005</v>
+        <v>1.200000000000009</v>
       </c>
       <c r="BQ20" t="n">
         <v>38.9</v>
@@ -10215,7 +10215,7 @@
         <v>20.6</v>
       </c>
       <c r="BS20" t="n">
-        <v>25.15999999999997</v>
+        <v>1.729999999999619</v>
       </c>
       <c r="BT20" t="n">
         <v>283.79</v>
@@ -10233,7 +10233,7 @@
         <v>-7.4</v>
       </c>
       <c r="BY20" t="n">
-        <v>5.670000000000002</v>
+        <v>3.63000000000001</v>
       </c>
       <c r="BZ20" t="n">
         <v>50.23</v>
@@ -10260,7 +10260,7 @@
         <v>-4.8</v>
       </c>
       <c r="CH20" t="n">
-        <v>1.039999999999996</v>
+        <v>0.289999999999996</v>
       </c>
       <c r="CI20" t="n">
         <v>27.74</v>
@@ -10287,7 +10287,7 @@
         <v>21.2</v>
       </c>
       <c r="CQ20" t="n">
-        <v>3.810000000000002</v>
+        <v>0.719999999999996</v>
       </c>
       <c r="CR20" t="n">
         <v>34.85</v>
@@ -10296,7 +10296,7 @@
         <v>1.6</v>
       </c>
       <c r="CT20" t="n">
-        <v>2.049999999999997</v>
+        <v>0.6299999999999952</v>
       </c>
       <c r="CU20" t="n">
         <v>23.69</v>
@@ -10323,7 +10323,7 @@
         <v>7</v>
       </c>
       <c r="DC20" t="n">
-        <v>1.699999999999998</v>
+        <v>0.07000000000000678</v>
       </c>
       <c r="DD20" t="n">
         <v>17.2</v>
@@ -10332,7 +10332,7 @@
         <v>10.1</v>
       </c>
       <c r="DF20" t="n">
-        <v>3.880000000000003</v>
+        <v>1.770000000000023</v>
       </c>
       <c r="DG20" t="n">
         <v>37.75</v>
@@ -10341,7 +10341,7 @@
         <v>0.9</v>
       </c>
       <c r="DI20" t="n">
-        <v>2.34</v>
+        <v>1.380000000000004</v>
       </c>
       <c r="DJ20" t="n">
         <v>21.47</v>
@@ -10350,7 +10350,7 @@
         <v>-1.9</v>
       </c>
       <c r="DL20" t="n">
-        <v>9.13000000000001</v>
+        <v>0.3100000000000325</v>
       </c>
       <c r="DM20" t="n">
         <v>88.36</v>
@@ -10359,7 +10359,7 @@
         <v>2.4</v>
       </c>
       <c r="DO20" t="n">
-        <v>0.25</v>
+        <v>0.0900000000000003</v>
       </c>
       <c r="DP20" t="n">
         <v>2.92</v>
@@ -10495,7 +10495,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.43</v>
+        <v>0.009999999999982023</v>
       </c>
       <c r="C21" t="n">
         <v>31.3</v>
@@ -10504,7 +10504,7 @@
         <v>-0.39</v>
       </c>
       <c r="E21" t="n">
-        <v>6.469999999999999</v>
+        <v>0.3600000000000065</v>
       </c>
       <c r="F21" t="n">
         <v>76.3</v>
@@ -10513,7 +10513,7 @@
         <v>-5.18</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6700000000000008</v>
+        <v>0.0100000000000009</v>
       </c>
       <c r="I21" t="n">
         <v>7.66</v>
@@ -10522,7 +10522,7 @@
         <v>-0.68</v>
       </c>
       <c r="K21" t="n">
-        <v>0.54</v>
+        <v>0.5000000000000009</v>
       </c>
       <c r="L21" t="n">
         <v>6.62</v>
@@ -10531,7 +10531,7 @@
         <v>3.6</v>
       </c>
       <c r="N21" t="n">
-        <v>0.03</v>
+        <v>1.734723475976807e-18</v>
       </c>
       <c r="O21" t="n">
         <v>0.05</v>
@@ -10540,7 +10540,7 @@
         <v>15.31</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.670000000000002</v>
+        <v>0.07999999999998408</v>
       </c>
       <c r="R21" t="n">
         <v>108.07</v>
@@ -10558,7 +10558,7 @@
         <v>8.140000000000001</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2999999999999972</v>
+        <v>0.01999999999999924</v>
       </c>
       <c r="X21" t="n">
         <v>33.8</v>
@@ -10585,7 +10585,7 @@
         <v>3.31</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.25</v>
+        <v>0.2499999999999984</v>
       </c>
       <c r="AG21" t="n">
         <v>3.92</v>
@@ -10603,7 +10603,7 @@
         <v>1.94</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.009999999999999398</v>
+        <v>0.009999999999997622</v>
       </c>
       <c r="AM21" t="n">
         <v>3.71</v>
@@ -10612,7 +10612,7 @@
         <v>7.94</v>
       </c>
       <c r="AO21" t="n">
-        <v>5.020000000000003</v>
+        <v>1.940000000000019</v>
       </c>
       <c r="AP21" t="n">
         <v>51.43</v>
@@ -10630,7 +10630,7 @@
         <v>5.2</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.6999999999999993</v>
+        <v>0.1000000000000015</v>
       </c>
       <c r="AV21" t="n">
         <v>7.86</v>
@@ -10657,7 +10657,7 @@
         <v>-0.28</v>
       </c>
       <c r="BD21" t="n">
-        <v>0.04999999999999991</v>
+        <v>1.249000902703301e-16</v>
       </c>
       <c r="BE21" t="n">
         <v>3.32</v>
@@ -10675,7 +10675,7 @@
         <v>-1.9</v>
       </c>
       <c r="BJ21" t="n">
-        <v>2.32</v>
+        <v>0.1799999999999999</v>
       </c>
       <c r="BK21" t="n">
         <v>23.63</v>
@@ -10684,7 +10684,7 @@
         <v>-3.17</v>
       </c>
       <c r="BM21" t="n">
-        <v>0.2200000000000002</v>
+        <v>0.02000000000000049</v>
       </c>
       <c r="BN21" t="n">
         <v>2.27</v>
@@ -10693,7 +10693,7 @@
         <v>-10.18</v>
       </c>
       <c r="BP21" t="n">
-        <v>1.749999999999993</v>
+        <v>0.4299999999999859</v>
       </c>
       <c r="BQ21" t="n">
         <v>42.67</v>
@@ -10702,7 +10702,7 @@
         <v>19.29</v>
       </c>
       <c r="BS21" t="n">
-        <v>24.72000000000003</v>
+        <v>0.3600000000004009</v>
       </c>
       <c r="BT21" t="n">
         <v>313.97</v>
@@ -10738,7 +10738,7 @@
         <v>0.37</v>
       </c>
       <c r="CE21" t="n">
-        <v>3.93</v>
+        <v>2.050000000000036</v>
       </c>
       <c r="CF21" t="n">
         <v>51.01</v>
@@ -10756,7 +10756,7 @@
         <v>2.9</v>
       </c>
       <c r="CK21" t="n">
-        <v>6.900000000000006</v>
+        <v>5.219999999999999</v>
       </c>
       <c r="CL21" t="n">
         <v>75.73</v>
@@ -10765,7 +10765,7 @@
         <v>1.25</v>
       </c>
       <c r="CN21" t="n">
-        <v>0.5300000000000011</v>
+        <v>0.4499999999999993</v>
       </c>
       <c r="CO21" t="n">
         <v>9.710000000000001</v>
@@ -10774,7 +10774,7 @@
         <v>18.67</v>
       </c>
       <c r="CQ21" t="n">
-        <v>3.099999999999994</v>
+        <v>0.3199999999999941</v>
       </c>
       <c r="CR21" t="n">
         <v>39.03</v>
@@ -10792,7 +10792,7 @@
         <v>-0.2</v>
       </c>
       <c r="CW21" t="n">
-        <v>6.600000000000009</v>
+        <v>5.480000000000033</v>
       </c>
       <c r="CX21" t="n">
         <v>71.68000000000001</v>
@@ -10801,7 +10801,7 @@
         <v>0.12</v>
       </c>
       <c r="CZ21" t="n">
-        <v>0.1099999999999994</v>
+        <v>0.02999999999999933</v>
       </c>
       <c r="DA21" t="n">
         <v>5.54</v>
@@ -10819,7 +10819,7 @@
         <v>7.81</v>
       </c>
       <c r="DF21" t="n">
-        <v>3.489999999999995</v>
+        <v>0.5499999999999901</v>
       </c>
       <c r="DG21" t="n">
         <v>42.06</v>
@@ -10828,7 +10828,7 @@
         <v>1.79</v>
       </c>
       <c r="DI21" t="n">
-        <v>1.759999999999998</v>
+        <v>0.139999999999995</v>
       </c>
       <c r="DJ21" t="n">
         <v>24.16</v>
@@ -10837,7 +10837,7 @@
         <v>-0.27</v>
       </c>
       <c r="DL21" t="n">
-        <v>6.97999999999999</v>
+        <v>6.359999999999925</v>
       </c>
       <c r="DM21" t="n">
         <v>98.44</v>
@@ -10982,7 +10982,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.280000000000001</v>
+        <v>0.840000000000019</v>
       </c>
       <c r="C22" t="n">
         <v>34.21</v>
@@ -10991,7 +10991,7 @@
         <v>1.03</v>
       </c>
       <c r="E22" t="n">
-        <v>2.790000000000006</v>
+        <v>2.069999999999992</v>
       </c>
       <c r="F22" t="n">
         <v>83.78</v>
@@ -11000,7 +11000,7 @@
         <v>-3.63</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03999999999999826</v>
+        <v>0.009999999999995561</v>
       </c>
       <c r="I22" t="n">
         <v>8.41</v>
@@ -11009,7 +11009,7 @@
         <v>0.4</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8599999999999999</v>
+        <v>0.3199999999999998</v>
       </c>
       <c r="L22" t="n">
         <v>7.29</v>
@@ -11018,7 +11018,7 @@
         <v>5.2</v>
       </c>
       <c r="N22" t="n">
-        <v>0.03</v>
+        <v>0.009999999999999998</v>
       </c>
       <c r="O22" t="n">
         <v>0.05</v>
@@ -11027,7 +11027,7 @@
         <v>19.38</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.580000000000009</v>
+        <v>0.4000000000000447</v>
       </c>
       <c r="R22" t="n">
         <v>120.11</v>
@@ -11036,7 +11036,7 @@
         <v>-0.37</v>
       </c>
       <c r="T22" t="n">
-        <v>1.57</v>
+        <v>0.600000000000001</v>
       </c>
       <c r="U22" t="n">
         <v>22.2</v>
@@ -11045,7 +11045,7 @@
         <v>5.04</v>
       </c>
       <c r="W22" t="n">
-        <v>0.8500000000000014</v>
+        <v>0.4900000000000065</v>
       </c>
       <c r="X22" t="n">
         <v>37.62</v>
@@ -11054,7 +11054,7 @@
         <v>6.67</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.2300000000000009</v>
+        <v>0.01000000000000109</v>
       </c>
       <c r="AA22" t="n">
         <v>9.18</v>
@@ -11063,7 +11063,7 @@
         <v>-2.46</v>
       </c>
       <c r="AC22" t="n">
-        <v>2.43</v>
+        <v>1.09</v>
       </c>
       <c r="AD22" t="n">
         <v>23.59</v>
@@ -11090,7 +11090,7 @@
         <v>1.89</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.2400000000000006</v>
+        <v>0.2000000000000056</v>
       </c>
       <c r="AM22" t="n">
         <v>4.09</v>
@@ -11117,7 +11117,7 @@
         <v>5.27</v>
       </c>
       <c r="AU22" t="n">
-        <v>0.1600000000000019</v>
+        <v>0.06000000000000039</v>
       </c>
       <c r="AV22" t="n">
         <v>8.74</v>
@@ -11135,7 +11135,7 @@
         <v>2.55</v>
       </c>
       <c r="BA22" t="n">
-        <v>1.359999999999999</v>
+        <v>0.799999999999994</v>
       </c>
       <c r="BB22" t="n">
         <v>9.32</v>
@@ -11144,7 +11144,7 @@
         <v>0.78</v>
       </c>
       <c r="BD22" t="n">
-        <v>0.6700000000000004</v>
+        <v>0.5700000000000003</v>
       </c>
       <c r="BE22" t="n">
         <v>3.64</v>
@@ -11162,7 +11162,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="BJ22" t="n">
-        <v>1.18</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="BK22" t="n">
         <v>26.23</v>
@@ -11171,7 +11171,7 @@
         <v>-1.84</v>
       </c>
       <c r="BM22" t="n">
-        <v>2.21</v>
+        <v>1.73</v>
       </c>
       <c r="BN22" t="n">
         <v>2.68</v>
@@ -11180,7 +11180,7 @@
         <v>-2.32</v>
       </c>
       <c r="BP22" t="n">
-        <v>4.960000000000001</v>
+        <v>1.030000000000029</v>
       </c>
       <c r="BQ22" t="n">
         <v>46.43</v>
@@ -11189,7 +11189,7 @@
         <v>13.15</v>
       </c>
       <c r="BS22" t="n">
-        <v>17.40999999999997</v>
+        <v>2.939999999999861</v>
       </c>
       <c r="BT22" t="n">
         <v>335.32</v>
@@ -11207,7 +11207,7 @@
         <v>-6.76</v>
       </c>
       <c r="BY22" t="n">
-        <v>5.839999999999996</v>
+        <v>4.360000000000007</v>
       </c>
       <c r="BZ22" t="n">
         <v>61.76</v>
@@ -11234,7 +11234,7 @@
         <v>-3.09</v>
       </c>
       <c r="CH22" t="n">
-        <v>23.84</v>
+        <v>23.63999999999996</v>
       </c>
       <c r="CI22" t="n">
         <v>35.21</v>
@@ -11252,7 +11252,7 @@
         <v>1.58</v>
       </c>
       <c r="CN22" t="n">
-        <v>1.039999999999998</v>
+        <v>0.01999999999999669</v>
       </c>
       <c r="CO22" t="n">
         <v>10.68</v>
@@ -11261,7 +11261,7 @@
         <v>22.57</v>
       </c>
       <c r="CQ22" t="n">
-        <v>2.480000000000012</v>
+        <v>1.840000000000024</v>
       </c>
       <c r="CR22" t="n">
         <v>43.95</v>
@@ -11270,7 +11270,7 @@
         <v>6.6</v>
       </c>
       <c r="CT22" t="n">
-        <v>2.280000000000001</v>
+        <v>0.7999999999999809</v>
       </c>
       <c r="CU22" t="n">
         <v>28.18</v>
@@ -11288,7 +11288,7 @@
         <v>-1.29</v>
       </c>
       <c r="CZ22" t="n">
-        <v>1.410000000000001</v>
+        <v>1.210000000000005</v>
       </c>
       <c r="DA22" t="n">
         <v>6.02</v>
@@ -11297,7 +11297,7 @@
         <v>3.49</v>
       </c>
       <c r="DC22" t="n">
-        <v>0.08000000000000207</v>
+        <v>0.01999999999999801</v>
       </c>
       <c r="DD22" t="n">
         <v>20.55</v>
@@ -11306,7 +11306,7 @@
         <v>7.82</v>
       </c>
       <c r="DF22" t="n">
-        <v>2.27000000000001</v>
+        <v>1.17000000000003</v>
       </c>
       <c r="DG22" t="n">
         <v>46.32</v>
@@ -11333,7 +11333,7 @@
         <v>5.18</v>
       </c>
       <c r="DO22" t="n">
-        <v>0.1099999999999998</v>
+        <v>0.02999999999999968</v>
       </c>
       <c r="DP22" t="n">
         <v>4.1</v>
